--- a/src/lanka_data_timeseries/other_sources/adb/sri-key-indicators-2022.xlsx
+++ b/src/lanka_data_timeseries/other_sources/adb/sri-key-indicators-2022.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rrado\Desktop\KI 2022\CT Proofread\Updated TYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b0f9a5cd621b2eb/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B3097E-6C74-42A4-949A-D6AC8393B1AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B7B3097E-6C74-42A4-949A-D6AC8393B1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B1D42BB-6D96-4292-8A29-55A5B2911490}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7650" yWindow="-14520" windowWidth="27390" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" forceFullCalc="1"/>
+  <calcPr calcId="191029" calcCompleted="0" forceFullCalc="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -283,35 +288,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">     Electricity, gas, steam, and air-conditioning supply; water supply;
-           sewerage, waste management, and remediation activities</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">     Construction</t>
     </r>
     <r>
@@ -3314,9 +3290,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                  12 months</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -6721,6 +6694,28 @@
   </si>
   <si>
     <t>Reference population is 10 years of age and older. Some data may not add up because (i) for 2005 and 2011–2013, data cover all islands; (ii) for 2003, data exclude the Northern Province; (iii) for 2004, data exclude the Mullaitivu and Kilinochchi districts; and (iv) for years prior to 2003 and for 2006–2010, data exclude the Northern and Eastern provinces.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     Electricity, gas, steam, and air-conditioning supply; water supply; sewerage, waste management, and remediation activities</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">     Time: 12 months</t>
   </si>
 </sst>
 </file>
@@ -6899,7 +6894,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7680,20 +7675,20 @@
   <dimension ref="A1:X531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="72" customWidth="1"/>
-    <col min="3" max="24" width="13.42578125" customWidth="1"/>
+    <col min="3" max="24" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7721,7 +7716,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -7747,7 +7742,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7775,7 +7770,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -7803,7 +7798,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -7831,7 +7826,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -7857,7 +7852,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5">
@@ -7927,7 +7922,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
         <v>4</v>
@@ -7955,7 +7950,7 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
     </row>
-    <row r="9" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>5</v>
@@ -8027,7 +8022,7 @@
         <v>22.155999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>6</v>
@@ -8099,7 +8094,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
         <v>7</v>
@@ -8171,7 +8166,7 @@
         <v>1.0812537068296999</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
         <v>8</v>
@@ -8243,7 +8238,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -8257,7 +8252,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
         <v>9</v>
@@ -8329,7 +8324,7 @@
         <v>8553.2900000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
         <v>10</v>
@@ -8401,7 +8396,7 @@
         <v>8113.5069999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
         <v>11</v>
@@ -8473,7 +8468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
         <v>13</v>
@@ -8519,7 +8514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
         <v>14</v>
@@ -8581,10 +8576,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
-        <v>15</v>
+      <c r="B19" s="17" t="s">
+        <v>413</v>
       </c>
       <c r="C19" s="14">
         <v>1490.7950000000001</v>
@@ -8653,10 +8648,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -8683,10 +8678,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -8745,10 +8740,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -8807,10 +8802,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -8869,10 +8864,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="14">
         <v>2545.299</v>
@@ -8925,10 +8920,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -8987,10 +8982,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -9017,10 +9012,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -9079,10 +9074,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>12</v>
@@ -9151,10 +9146,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="14">
         <v>517.16800000000001</v>
@@ -9223,10 +9218,10 @@
         <v>439.78300000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="13">
         <v>7.5748699999999998</v>
@@ -9295,10 +9290,10 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="13">
         <v>2.3094999999999999</v>
@@ -9367,10 +9362,10 @@
         <v>1.0238341077877</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="13">
         <v>50.331609999999998</v>
@@ -9439,10 +9434,10 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="13">
         <v>67.159239999999997</v>
@@ -9511,10 +9506,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="13">
         <v>33.893700000000003</v>
@@ -9583,7 +9578,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -9597,10 +9592,10 @@
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -9625,10 +9620,10 @@
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
     </row>
-    <row r="37" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -9653,10 +9648,10 @@
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
     </row>
-    <row r="38" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="14">
         <v>1287286</v>
@@ -9725,7 +9720,7 @@
         <v>17685854.210000001</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="11" t="s">
         <v>11</v>
@@ -9797,7 +9792,7 @@
         <v>1539521.172</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
         <v>13</v>
@@ -9869,7 +9864,7 @@
         <v>354249.50910000002</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="11" t="s">
         <v>14</v>
@@ -9941,10 +9936,10 @@
         <v>3164275.7910000002</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="14">
         <v>21679</v>
@@ -10013,10 +10008,10 @@
         <v>143088.41089999999</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="15"/>
@@ -10065,10 +10060,10 @@
         <v>38065.435019999997</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" s="14">
         <v>81160</v>
@@ -10137,10 +10132,10 @@
         <v>1569140.8759999999</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" s="14">
         <v>248376</v>
@@ -10209,10 +10204,10 @@
         <v>2255859.8420000002</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="14">
         <v>134827</v>
@@ -10281,10 +10276,10 @@
         <v>1629893.3770000001</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="15"/>
@@ -10333,10 +10328,10 @@
         <v>164216.85920000001</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="15"/>
@@ -10385,10 +10380,10 @@
         <v>474151.61949999997</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="14">
         <v>92607</v>
@@ -10457,10 +10452,10 @@
         <v>1061621.7279999999</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>12</v>
@@ -10529,10 +10524,10 @@
         <v>800839.05429999996</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>12</v>
@@ -10601,10 +10596,10 @@
         <v>382832.56089999998</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>12</v>
@@ -10665,10 +10660,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" s="14">
         <v>73728</v>
@@ -10737,10 +10732,10 @@
         <v>948050.4621</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>12</v>
@@ -10809,10 +10804,10 @@
         <v>390176.43920000002</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>12</v>
@@ -10881,10 +10876,10 @@
         <v>432014.76179999998</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>12</v>
@@ -10953,10 +10948,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="14">
         <v>54381</v>
@@ -11025,10 +11020,10 @@
         <v>1206988.4680000001</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>12</v>
@@ -11097,10 +11092,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>12</v>
@@ -11169,10 +11164,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60" s="14">
         <v>1150118</v>
@@ -11241,10 +11236,10 @@
         <v>16554986.369999999</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C61" s="14">
         <v>137168</v>
@@ -11256,25 +11251,25 @@
         <v>0.01</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H61" s="14">
         <v>-2</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L61" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>12</v>
@@ -11313,10 +11308,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>12</v>
@@ -11385,10 +11380,10 @@
         <v>1144240.1610000001</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>12</v>
@@ -11457,10 +11452,10 @@
         <v>13372.316999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64" s="14">
         <v>-23009</v>
@@ -11529,10 +11524,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C65" s="14">
         <v>1264277</v>
@@ -11601,7 +11596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -11615,10 +11610,10 @@
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
     </row>
-    <row r="67" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -11643,10 +11638,10 @@
       <c r="W67" s="6"/>
       <c r="X67" s="6"/>
     </row>
-    <row r="68" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C68" s="13">
         <v>17.57611</v>
@@ -11715,10 +11710,10 @@
         <v>9.2994408910528001</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C69" s="13">
         <v>29.914580000000001</v>
@@ -11787,10 +11782,10 @@
         <v>31.826181576130999</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C70" s="13">
         <v>52.509309999999999</v>
@@ -11859,7 +11854,7 @@
         <v>58.874377508774998</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -11873,10 +11868,10 @@
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
     </row>
-    <row r="72" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="14">
         <v>1287285</v>
@@ -11945,10 +11940,10 @@
         <v>16809309.41</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C73" s="14">
         <v>1089384</v>
@@ -12017,10 +12012,10 @@
         <v>13425151.890000001</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C74" s="14">
         <v>912528</v>
@@ -12089,10 +12084,10 @@
         <v>11814865.210000001</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>12</v>
@@ -12161,10 +12156,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C76" s="14">
         <v>176856</v>
@@ -12233,10 +12228,10 @@
         <v>1610286.686</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C77" s="14">
         <v>327086</v>
@@ -12305,10 +12300,10 @@
         <v>4655829.0949999997</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C78" s="14">
         <v>318748</v>
@@ -12377,10 +12372,10 @@
         <v>4370576.9400000004</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>12</v>
@@ -12449,10 +12444,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>12</v>
@@ -12521,10 +12516,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C81" s="14">
         <v>8338</v>
@@ -12593,10 +12588,10 @@
         <v>229520.24789999999</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>12</v>
@@ -12665,10 +12660,10 @@
         <v>55731.906999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C83" s="14">
         <v>492301</v>
@@ -12737,10 +12732,10 @@
         <v>2981613.16</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>12</v>
@@ -12809,10 +12804,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>12</v>
@@ -12881,10 +12876,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C86" s="14">
         <v>623570</v>
@@ -12953,10 +12948,10 @@
         <v>4253284.7369999997</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>12</v>
@@ -13025,10 +13020,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>12</v>
@@ -13097,10 +13092,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C89" s="14">
         <v>2084</v>
@@ -13169,7 +13164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -13183,10 +13178,10 @@
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
     </row>
-    <row r="91" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
@@ -13211,10 +13206,10 @@
       <c r="W91" s="6"/>
       <c r="X91" s="6"/>
     </row>
-    <row r="92" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C92" s="13">
         <v>70.887798739207</v>
@@ -13283,10 +13278,10 @@
         <v>70.287630030000003</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C93" s="13">
         <v>13.73868257612</v>
@@ -13355,10 +13350,10 @@
         <v>9.5797313620000004</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C94" s="13">
         <v>25.408980920000001</v>
@@ -13427,10 +13422,10 @@
         <v>27.69792013</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C95" s="13">
         <v>0.64771999999999996</v>
@@ -13499,10 +13494,10 @@
         <v>1.3654353210000001</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C96" s="13">
         <v>38.243357143135</v>
@@ -13571,10 +13566,10 @@
         <v>17.737868259999999</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
       <c r="B97" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C97" s="13">
         <v>48.440710487577</v>
@@ -13643,10 +13638,10 @@
         <v>25.303149779999998</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C98" s="13">
         <v>0.16189000000000001</v>
@@ -13715,7 +13710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -13729,10 +13724,10 @@
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
     </row>
-    <row r="100" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
@@ -13757,10 +13752,10 @@
       <c r="W100" s="6"/>
       <c r="X100" s="6"/>
     </row>
-    <row r="101" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C101" s="14">
         <v>1155552</v>
@@ -13829,7 +13824,7 @@
         <v>13171801.6</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
       <c r="B102" s="11" t="s">
         <v>11</v>
@@ -13901,7 +13896,7 @@
         <v>959433.95239999995</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="11" t="s">
         <v>13</v>
@@ -13973,7 +13968,7 @@
         <v>288060.6997</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="11" t="s">
         <v>14</v>
@@ -14045,10 +14040,10 @@
         <v>2249576.2769999998</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C105" s="14">
         <v>20907</v>
@@ -14117,10 +14112,10 @@
         <v>187762.8357</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
@@ -14169,10 +14164,10 @@
         <v>39323.35108</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
       <c r="B107" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C107" s="14">
         <v>74658</v>
@@ -14241,10 +14236,10 @@
         <v>1169059.2749999999</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C108" s="14">
         <v>219723</v>
@@ -14313,10 +14308,10 @@
         <v>1678812.9110000001</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C109" s="14">
         <v>119298</v>
@@ -14385,10 +14380,10 @@
         <v>1343359.8829999999</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C110" s="14"/>
       <c r="D110" s="14"/>
@@ -14437,10 +14432,10 @@
         <v>130474.39599999999</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C111" s="14"/>
       <c r="D111" s="14"/>
@@ -14489,10 +14484,10 @@
         <v>424369.66149999999</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C112" s="14">
         <v>77481</v>
@@ -14561,10 +14556,10 @@
         <v>722593.17649999994</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C113" s="14" t="s">
         <v>12</v>
@@ -14633,10 +14628,10 @@
         <v>630618.58530000004</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
       <c r="B114" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C114" s="14" t="s">
         <v>12</v>
@@ -14705,10 +14700,10 @@
         <v>301890.3321</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
       <c r="B115" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>12</v>
@@ -14761,10 +14756,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C116" s="14">
         <v>63701</v>
@@ -14833,10 +14828,10 @@
         <v>626013.39370000002</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C117" s="14" t="s">
         <v>12</v>
@@ -14905,10 +14900,10 @@
         <v>290487.47580000001</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
       <c r="B118" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C118" s="14" t="s">
         <v>12</v>
@@ -14977,10 +14972,10 @@
         <v>260499.00659999999</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
       <c r="B119" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C119" s="14" t="s">
         <v>12</v>
@@ -15049,10 +15044,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C120" s="14">
         <v>50426</v>
@@ -15121,10 +15116,10 @@
         <v>996143.51450000005</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C121" s="14" t="s">
         <v>12</v>
@@ -15193,10 +15188,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C122" s="14" t="s">
         <v>12</v>
@@ -15265,10 +15260,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
       <c r="B123" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C123" s="14">
         <v>1034209</v>
@@ -15337,10 +15332,10 @@
         <v>12298478.73</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
       <c r="B124" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>12</v>
@@ -15409,10 +15404,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
       <c r="B125" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C125" s="14">
         <v>121343</v>
@@ -15481,10 +15476,10 @@
         <v>924258.61069999996</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10"/>
       <c r="B126" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C126" s="14" t="s">
         <v>12</v>
@@ -15553,10 +15548,10 @@
         <v>50935.734530000002</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
       <c r="B127" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C127" s="14">
         <v>-20655</v>
@@ -15625,10 +15620,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="B128" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C128" s="14">
         <v>1134897</v>
@@ -15697,7 +15692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -15711,10 +15706,10 @@
       <c r="K129" s="10"/>
       <c r="L129" s="10"/>
     </row>
-    <row r="130" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
       <c r="B130" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
@@ -15739,10 +15734,10 @@
       <c r="W130" s="6"/>
       <c r="X130" s="6"/>
     </row>
-    <row r="131" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
       <c r="B131" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C131" s="13">
         <v>5.9791400000000001</v>
@@ -15811,10 +15806,10 @@
         <v>3.3267638371357</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
       <c r="B132" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C132" s="13">
         <v>2.3106800000000001</v>
@@ -15883,10 +15878,10 @@
         <v>2.5013904755312999</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
       <c r="B133" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C133" s="13">
         <v>9.0451099999999993</v>
@@ -15955,10 +15950,10 @@
         <v>5.6243523863266001</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
       <c r="B134" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C134" s="13">
         <v>6.0676699999999997</v>
@@ -16027,7 +16022,7 @@
         <v>3.3390558770752001</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -16041,10 +16036,10 @@
       <c r="K135" s="10"/>
       <c r="L135" s="10"/>
     </row>
-    <row r="136" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10"/>
       <c r="B136" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C136" s="14">
         <v>1155552</v>
@@ -16113,10 +16108,10 @@
         <v>9881396.5830000006</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
       <c r="B137" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C137" s="14">
         <v>886871</v>
@@ -16185,10 +16180,10 @@
         <v>7870841.4079999998</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
       <c r="B138" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C138" s="14">
         <v>730096</v>
@@ -16257,10 +16252,10 @@
         <v>7146226.3710000003</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
       <c r="B139" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C139" s="14" t="s">
         <v>12</v>
@@ -16329,10 +16324,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
       <c r="B140" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C140" s="14">
         <v>156775</v>
@@ -16401,10 +16396,10 @@
         <v>724615.03700000001</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
       <c r="B141" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C141" s="14">
         <v>290295</v>
@@ -16473,10 +16468,10 @@
         <v>2848458.3909999998</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
       <c r="B142" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C142" s="14">
         <v>284917</v>
@@ -16545,10 +16540,10 @@
         <v>2420339.8450000002</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
       <c r="B143" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C143" s="14" t="s">
         <v>12</v>
@@ -16617,10 +16612,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
       <c r="B144" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C144" s="14" t="s">
         <v>12</v>
@@ -16689,10 +16684,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
       <c r="B145" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C145" s="14">
         <v>5378</v>
@@ -16761,10 +16756,10 @@
         <v>400690.00170000002</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
       <c r="B146" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C146" s="14" t="s">
         <v>12</v>
@@ -16833,10 +16828,10 @@
         <v>27428.544000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
       <c r="B147" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C147" s="14">
         <v>457762</v>
@@ -16905,10 +16900,10 @@
         <v>1952032.7439999999</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
       <c r="B148" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C148" s="14" t="s">
         <v>12</v>
@@ -16977,10 +16972,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
       <c r="B149" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C149" s="14" t="s">
         <v>12</v>
@@ -17049,10 +17044,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
       <c r="B150" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C150" s="14">
         <v>480721</v>
@@ -17121,10 +17116,10 @@
         <v>2789935.9589999998</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
       <c r="B151" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C151" s="14" t="s">
         <v>12</v>
@@ -17193,10 +17188,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
       <c r="B152" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C152" s="14" t="s">
         <v>12</v>
@@ -17265,10 +17260,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
       <c r="B153" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C153" s="14">
         <v>1345</v>
@@ -17337,7 +17332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -17351,10 +17346,10 @@
       <c r="K154" s="10"/>
       <c r="L154" s="10"/>
     </row>
-    <row r="155" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
       <c r="B155" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
@@ -17379,10 +17374,10 @@
       <c r="W155" s="6"/>
       <c r="X155" s="6"/>
     </row>
-    <row r="156" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
       <c r="B156" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C156" s="13">
         <v>4.04467</v>
@@ -17451,10 +17446,10 @@
         <v>4.3629573620870996</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
       <c r="B157" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C157" s="13">
         <v>5.2972700000000001</v>
@@ -17523,10 +17518,10 @@
         <v>2.2309526496820999</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
       <c r="B158" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C158" s="13">
         <v>8.6531000000000002</v>
@@ -17595,10 +17590,10 @@
         <v>1.4807966029355</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
       <c r="B159" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C159" s="13">
         <v>17.10014</v>
@@ -17667,10 +17662,10 @@
         <v>16.968385150298001</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
       <c r="B160" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C160" s="13">
         <v>14.79987</v>
@@ -17739,7 +17734,7 @@
         <v>11.53410339</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -17753,10 +17748,10 @@
       <c r="K161" s="10"/>
       <c r="L161" s="10"/>
     </row>
-    <row r="162" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
       <c r="B162" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C162" s="12"/>
       <c r="D162" s="12"/>
@@ -17781,10 +17776,10 @@
       <c r="W162" s="6"/>
       <c r="X162" s="6"/>
     </row>
-    <row r="163" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
       <c r="B163" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C163" s="14">
         <v>327086</v>
@@ -17853,10 +17848,10 @@
         <v>4655829.0949999997</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
       <c r="B164" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C164" s="14">
         <v>248512</v>
@@ -17925,10 +17920,10 @@
         <v>4065941.1370000001</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
       <c r="B165" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C165" s="14">
         <v>197902</v>
@@ -17997,10 +17992,10 @@
         <v>3384157.517</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
       <c r="B166" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C166" s="14">
         <v>-23009</v>
@@ -18069,10 +18064,10 @@
         <v>-406604.38</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
       <c r="B167" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C167" s="14">
         <v>73619</v>
@@ -18141,7 +18136,7 @@
         <v>1088388</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -18155,10 +18150,10 @@
       <c r="K168" s="10"/>
       <c r="L168" s="10"/>
     </row>
-    <row r="169" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
       <c r="B169" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C169" s="12"/>
       <c r="D169" s="12"/>
@@ -18183,10 +18178,10 @@
       <c r="W169" s="6"/>
       <c r="X169" s="6"/>
     </row>
-    <row r="170" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
       <c r="B170" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C170" s="13">
         <v>15.37358</v>
@@ -18255,10 +18250,10 @@
         <v>19.134826493631</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
       <c r="B171" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C171" s="13">
         <v>19.305109999999999</v>
@@ -18327,10 +18322,10 @@
         <v>22.989792230115</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
       <c r="B172" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C172" s="13">
         <v>25.40896</v>
@@ -18399,7 +18394,7 @@
         <v>26.325158172838002</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -18413,10 +18408,10 @@
       <c r="K173" s="10"/>
       <c r="L173" s="10"/>
     </row>
-    <row r="174" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
       <c r="B174" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C174" s="12"/>
       <c r="D174" s="12"/>
@@ -18441,10 +18436,10 @@
       <c r="W174" s="6"/>
       <c r="X174" s="6"/>
     </row>
-    <row r="175" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
       <c r="B175" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C175" s="14">
         <v>66492.045450000005</v>
@@ -18513,10 +18508,10 @@
         <v>798242.20120959997</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
       <c r="B176" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C176" s="14">
         <v>65303.564050000001</v>
@@ -18585,7 +18580,7 @@
         <v>740328</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -18599,10 +18594,10 @@
       <c r="K177" s="10"/>
       <c r="L177" s="10"/>
     </row>
-    <row r="178" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
       <c r="B178" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C178" s="12"/>
       <c r="D178" s="12"/>
@@ -18627,10 +18622,10 @@
       <c r="W178" s="6"/>
       <c r="X178" s="6"/>
     </row>
-    <row r="179" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
       <c r="B179" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C179" s="13">
         <v>71.2</v>
@@ -18699,7 +18694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -18713,10 +18708,10 @@
       <c r="K180" s="10"/>
       <c r="L180" s="10"/>
     </row>
-    <row r="181" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
       <c r="B181" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C181" s="12"/>
       <c r="D181" s="12"/>
@@ -18741,10 +18736,10 @@
       <c r="W181" s="6"/>
       <c r="X181" s="6"/>
     </row>
-    <row r="182" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
       <c r="B182" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C182" s="12"/>
       <c r="D182" s="12"/>
@@ -18769,10 +18764,10 @@
       <c r="W182" s="6"/>
       <c r="X182" s="6"/>
     </row>
-    <row r="183" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
       <c r="B183" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C183" s="14" t="s">
         <v>12</v>
@@ -18841,10 +18836,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
       <c r="B184" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C184" s="14" t="s">
         <v>12</v>
@@ -18913,10 +18908,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
       <c r="B185" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C185" s="14">
         <v>2330</v>
@@ -18985,10 +18980,10 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
       <c r="B186" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C186" s="14">
         <v>3303</v>
@@ -19057,7 +19052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -19071,10 +19066,10 @@
       <c r="K187" s="10"/>
       <c r="L187" s="10"/>
     </row>
-    <row r="188" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="10"/>
       <c r="B188" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C188" s="12"/>
       <c r="D188" s="12"/>
@@ -19099,10 +19094,10 @@
       <c r="W188" s="6"/>
       <c r="X188" s="6"/>
     </row>
-    <row r="189" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
       <c r="B189" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C189" s="14" t="s">
         <v>12</v>
@@ -19171,10 +19166,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
       <c r="B190" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C190" s="14" t="s">
         <v>12</v>
@@ -19243,10 +19238,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
       <c r="B191" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C191" s="14">
         <v>2.0009800000000002</v>
@@ -19315,10 +19310,10 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
       <c r="B192" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C192" s="14" t="s">
         <v>12</v>
@@ -19387,7 +19382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -19401,10 +19396,10 @@
       <c r="K193" s="10"/>
       <c r="L193" s="10"/>
     </row>
-    <row r="194" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
       <c r="B194" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C194" s="12"/>
       <c r="D194" s="12"/>
@@ -19429,10 +19424,10 @@
       <c r="W194" s="6"/>
       <c r="X194" s="6"/>
     </row>
-    <row r="195" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
       <c r="B195" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C195" s="14" t="s">
         <v>12</v>
@@ -19501,10 +19496,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
       <c r="B196" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C196" s="14" t="s">
         <v>12</v>
@@ -19573,10 +19568,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="10"/>
       <c r="B197" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C197" s="14">
         <v>130.84265099999999</v>
@@ -19645,10 +19640,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
       <c r="B198" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C198" s="14" t="s">
         <v>12</v>
@@ -19717,7 +19712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -19731,10 +19726,10 @@
       <c r="K199" s="10"/>
       <c r="L199" s="10"/>
     </row>
-    <row r="200" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
       <c r="B200" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C200" s="12"/>
       <c r="D200" s="12"/>
@@ -19759,10 +19754,10 @@
       <c r="W200" s="6"/>
       <c r="X200" s="6"/>
     </row>
-    <row r="201" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
       <c r="B201" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C201" s="14">
         <v>6844</v>
@@ -19831,10 +19826,10 @@
         <v>16716</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
       <c r="B202" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C202" s="14" t="s">
         <v>12</v>
@@ -19903,10 +19898,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
       <c r="B203" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C203" s="14" t="s">
         <v>12</v>
@@ -19975,10 +19970,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
       <c r="B204" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C204" s="14">
         <v>5259</v>
@@ -20047,7 +20042,7 @@
         <v>15214</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -20061,10 +20056,10 @@
       <c r="K205" s="10"/>
       <c r="L205" s="10"/>
     </row>
-    <row r="206" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
       <c r="B206" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C206" s="12"/>
       <c r="D206" s="12"/>
@@ -20089,10 +20084,10 @@
       <c r="W206" s="6"/>
       <c r="X206" s="6"/>
     </row>
-    <row r="207" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="10"/>
       <c r="B207" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C207" s="14">
         <v>50</v>
@@ -20161,10 +20156,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
       <c r="B208" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C208" s="14">
         <v>24.5</v>
@@ -20233,7 +20228,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -20247,10 +20242,10 @@
       <c r="K209" s="10"/>
       <c r="L209" s="10"/>
     </row>
-    <row r="210" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
       <c r="B210" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C210" s="12"/>
       <c r="D210" s="12"/>
@@ -20275,10 +20270,10 @@
       <c r="W210" s="6"/>
       <c r="X210" s="6"/>
     </row>
-    <row r="211" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
       <c r="B211" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C211" s="13" t="s">
         <v>12</v>
@@ -20347,10 +20342,10 @@
         <v>147.21666669999999</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
       <c r="B212" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C212" s="13" t="s">
         <v>12</v>
@@ -20419,10 +20414,10 @@
         <v>159.16666670000001</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
       <c r="B213" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C213" s="13" t="s">
         <v>12</v>
@@ -20491,10 +20486,10 @@
         <v>220.43333329999999</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
       <c r="B214" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C214" s="13" t="s">
         <v>12</v>
@@ -20563,10 +20558,10 @@
         <v>137.67500000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
       <c r="B215" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C215" s="13" t="s">
         <v>12</v>
@@ -20635,10 +20630,10 @@
         <v>129.1416667</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
       <c r="B216" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C216" s="13" t="s">
         <v>12</v>
@@ -20707,10 +20702,10 @@
         <v>138.68333329999999</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="10"/>
       <c r="B217" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C217" s="13" t="s">
         <v>12</v>
@@ -20779,10 +20774,10 @@
         <v>169.28333330000001</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
       <c r="B218" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C218" s="13" t="s">
         <v>12</v>
@@ -20851,10 +20846,10 @@
         <v>127.9416667</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
       <c r="B219" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C219" s="13" t="s">
         <v>12</v>
@@ -20923,10 +20918,10 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
       <c r="B220" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C220" s="13" t="s">
         <v>12</v>
@@ -20995,10 +20990,10 @@
         <v>126.4416667</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
       <c r="B221" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C221" s="13" t="s">
         <v>12</v>
@@ -21067,10 +21062,10 @@
         <v>144.55833329999999</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
       <c r="B222" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C222" s="13" t="s">
         <v>12</v>
@@ -21139,10 +21134,10 @@
         <v>131.8833333</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
       <c r="B223" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C223" s="13" t="s">
         <v>12</v>
@@ -21211,10 +21206,10 @@
         <v>148.30833329999999</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
       <c r="B224" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C224" s="13">
         <v>2539.8000000000002</v>
@@ -21283,10 +21278,10 @@
         <v>143.43333329999999</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
       <c r="B225" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C225" s="13">
         <v>2815.8</v>
@@ -21355,10 +21350,10 @@
         <v>165.22499999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
       <c r="B226" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C226" s="13" t="s">
         <v>12</v>
@@ -21427,10 +21422,10 @@
         <v>231.15833330000001</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
       <c r="B227" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C227" s="13" t="s">
         <v>12</v>
@@ -21499,10 +21494,10 @@
         <v>163.3833333</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
       <c r="B228" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C228" s="13" t="s">
         <v>12</v>
@@ -21571,10 +21566,10 @@
         <v>119.3</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
       <c r="B229" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C229" s="13" t="s">
         <v>12</v>
@@ -21643,10 +21638,10 @@
         <v>142.40833330000001</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
       <c r="B230" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C230" s="13" t="s">
         <v>12</v>
@@ -21715,10 +21710,10 @@
         <v>183.4916667</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
       <c r="B231" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C231" s="13" t="s">
         <v>12</v>
@@ -21787,10 +21782,10 @@
         <v>125.1166667</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
       <c r="B232" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C232" s="13" t="s">
         <v>12</v>
@@ -21859,10 +21854,10 @@
         <v>97.3</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="10"/>
       <c r="B233" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C233" s="13" t="s">
         <v>12</v>
@@ -21931,10 +21926,10 @@
         <v>118.2166667</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="10"/>
       <c r="B234" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C234" s="13" t="s">
         <v>12</v>
@@ -22003,10 +21998,10 @@
         <v>169.8</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="10"/>
       <c r="B235" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C235" s="13" t="s">
         <v>12</v>
@@ -22075,10 +22070,10 @@
         <v>151.3583333</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="10"/>
       <c r="B236" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C236" s="13" t="s">
         <v>12</v>
@@ -22147,10 +22142,10 @@
         <v>152.95833329999999</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="10"/>
       <c r="B237" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C237" s="13" t="s">
         <v>12</v>
@@ -22219,10 +22214,10 @@
         <v>123.7534064</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="10"/>
       <c r="B238" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C238" s="13">
         <v>1317.2</v>
@@ -22291,10 +22286,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="10"/>
       <c r="B239" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C239" s="13">
         <v>111.40009000000001</v>
@@ -22363,7 +22358,7 @@
         <v>134.27057852132</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -22377,10 +22372,10 @@
       <c r="K240" s="10"/>
       <c r="L240" s="10"/>
     </row>
-    <row r="241" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="10"/>
       <c r="B241" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C241" s="12"/>
       <c r="D241" s="12"/>
@@ -22405,10 +22400,10 @@
       <c r="W241" s="6"/>
       <c r="X241" s="6"/>
     </row>
-    <row r="242" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="10"/>
       <c r="B242" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C242" s="13">
         <v>6.1744899999999996</v>
@@ -22477,10 +22472,10 @@
         <v>5.9591233429999999</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="10"/>
       <c r="B243" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C243" s="13">
         <v>4.4668700000000001</v>
@@ -22549,10 +22544,10 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="10"/>
       <c r="B244" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C244" s="13">
         <v>1.6907300000000001</v>
@@ -22621,10 +22616,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="10"/>
       <c r="B245" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C245" s="13">
         <v>6.7129200000000004</v>
@@ -22693,7 +22688,7 @@
         <v>8.0571600341364995</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A246" s="10"/>
       <c r="B246" s="10"/>
       <c r="C246" s="10"/>
@@ -22707,10 +22702,10 @@
       <c r="K246" s="10"/>
       <c r="L246" s="10"/>
     </row>
-    <row r="247" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="10"/>
       <c r="B247" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C247" s="12"/>
       <c r="D247" s="12"/>
@@ -22735,10 +22730,10 @@
       <c r="W247" s="6"/>
       <c r="X247" s="6"/>
     </row>
-    <row r="248" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="10"/>
       <c r="B248" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C248" s="14">
         <v>118477</v>
@@ -22807,10 +22802,10 @@
         <v>1459895.4650000001</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="10"/>
       <c r="B249" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C249" s="14">
         <v>62647</v>
@@ -22879,10 +22874,10 @@
         <v>784449.65040000004</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="10"/>
       <c r="B250" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C250" s="14">
         <v>55830</v>
@@ -22951,10 +22946,10 @@
         <v>675445.81420000002</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="10"/>
       <c r="B251" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C251" s="14">
         <v>286192</v>
@@ -23023,10 +23018,10 @@
         <v>8179009.8940000003</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="10"/>
       <c r="B252" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C252" s="14">
         <v>404669</v>
@@ -23095,10 +23090,10 @@
         <v>9638905.3579999991</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="10"/>
       <c r="B253" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C253" s="14">
         <v>59448</v>
@@ -23167,10 +23162,10 @@
         <v>-1073604.3959999999</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="10"/>
       <c r="B254" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C254" s="14">
         <v>469084</v>
@@ -23239,10 +23234,10 @@
         <v>12927117.99</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="10"/>
       <c r="B255" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C255" s="14">
         <v>134484</v>
@@ -23311,10 +23306,10 @@
         <v>5455434.5659999996</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="10"/>
       <c r="B256" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C256" s="14">
         <v>307613</v>
@@ -23383,10 +23378,10 @@
         <v>6498862.3490000004</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="10"/>
       <c r="B257" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C257" s="14">
         <v>26986</v>
@@ -23455,10 +23450,10 @@
         <v>972821.07149999996</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="10"/>
       <c r="B258" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C258" s="14">
         <v>-123863</v>
@@ -23527,7 +23522,7 @@
         <v>-2214608.2319999998</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A259" s="10"/>
       <c r="B259" s="10"/>
       <c r="C259" s="10"/>
@@ -23541,10 +23536,10 @@
       <c r="K259" s="10"/>
       <c r="L259" s="10"/>
     </row>
-    <row r="260" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="10"/>
       <c r="B260" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C260" s="13">
         <v>13.01</v>
@@ -23613,10 +23608,10 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="10"/>
       <c r="B261" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C261" s="13">
         <v>31.435827</v>
@@ -23685,7 +23680,7 @@
         <v>54.500649182948997</v>
       </c>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A262" s="10"/>
       <c r="B262" s="10"/>
       <c r="C262" s="10"/>
@@ -23699,10 +23694,10 @@
       <c r="K262" s="10"/>
       <c r="L262" s="10"/>
     </row>
-    <row r="263" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="10"/>
       <c r="B263" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C263" s="12"/>
       <c r="D263" s="12"/>
@@ -23727,10 +23722,10 @@
       <c r="W263" s="6"/>
       <c r="X263" s="6"/>
     </row>
-    <row r="264" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="10"/>
       <c r="B264" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C264" s="14">
         <v>70441.604460000002</v>
@@ -23799,10 +23794,10 @@
         <v>771716.01859999995</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="10"/>
       <c r="B265" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C265" s="14">
         <v>375224.31719999999</v>
@@ -23871,10 +23866,10 @@
         <v>9465163.8149999995</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="10"/>
       <c r="B266" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C266" s="14">
         <v>356663.3162</v>
@@ -23943,7 +23938,7 @@
         <v>8208010.7929999996</v>
       </c>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A267" s="10"/>
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
@@ -23957,10 +23952,10 @@
       <c r="K267" s="10"/>
       <c r="L267" s="10"/>
     </row>
-    <row r="268" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="10"/>
       <c r="B268" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C268" s="12"/>
       <c r="D268" s="12"/>
@@ -23985,10 +23980,10 @@
       <c r="W268" s="6"/>
       <c r="X268" s="6"/>
     </row>
-    <row r="269" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="10"/>
       <c r="B269" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C269" s="13"/>
       <c r="D269" s="13"/>
@@ -24013,10 +24008,10 @@
       <c r="W269" s="7"/>
       <c r="X269" s="7"/>
     </row>
-    <row r="270" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="10"/>
       <c r="B270" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C270" s="13">
         <v>8.4</v>
@@ -24085,10 +24080,10 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="10"/>
       <c r="B271" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C271" s="13">
         <v>12</v>
@@ -24157,10 +24152,10 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="10"/>
       <c r="B272" s="17" t="s">
-        <v>164</v>
+        <v>414</v>
       </c>
       <c r="C272" s="13">
         <v>15</v>
@@ -24229,7 +24224,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A273" s="10"/>
       <c r="B273" s="10"/>
       <c r="C273" s="10"/>
@@ -24243,10 +24238,10 @@
       <c r="K273" s="10"/>
       <c r="L273" s="10"/>
     </row>
-    <row r="274" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="10"/>
       <c r="B274" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C274" s="12"/>
       <c r="D274" s="12"/>
@@ -24271,10 +24266,10 @@
       <c r="W274" s="6"/>
       <c r="X274" s="6"/>
     </row>
-    <row r="275" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="10"/>
       <c r="B275" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="13"/>
@@ -24299,10 +24294,10 @@
       <c r="W275" s="7"/>
       <c r="X275" s="7"/>
     </row>
-    <row r="276" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="10"/>
       <c r="B276" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C276" s="14">
         <v>216389</v>
@@ -24371,10 +24366,10 @@
         <v>1463810.3470000001</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="10"/>
       <c r="B277" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C277" s="14">
         <v>182392</v>
@@ -24443,10 +24438,10 @@
         <v>1298019.06</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="10"/>
       <c r="B278" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C278" s="14">
         <v>27457</v>
@@ -24515,10 +24510,10 @@
         <v>286034.33399999997</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="10"/>
       <c r="B279" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C279" s="14">
         <v>11700</v>
@@ -24587,10 +24582,10 @@
         <v>20950.495640000001</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="10"/>
       <c r="B280" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C280" s="14">
         <v>15757</v>
@@ -24659,16 +24654,16 @@
         <v>252673.34049999999</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="10"/>
       <c r="B281" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D281" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E281" s="14">
         <v>11513</v>
@@ -24731,82 +24726,82 @@
         <v>12410.49784</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="10"/>
       <c r="B282" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D282" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E282" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F282" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G282" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H282" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I282" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J282" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K282" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L282" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M282" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N282" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O282" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P282" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q282" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R282" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S282" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T282" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U282" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V282" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W282" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X282" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="283" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="10"/>
       <c r="B283" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C283" s="14">
         <v>8163</v>
@@ -24821,64 +24816,64 @@
         <v>51</v>
       </c>
       <c r="G283" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H283" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I283" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J283" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K283" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L283" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M283" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N283" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O283" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P283" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q283" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R283" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S283" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T283" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U283" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V283" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W283" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X283" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="284" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="284" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="10"/>
       <c r="B284" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C284" s="14">
         <v>122802</v>
@@ -24947,10 +24942,10 @@
         <v>643086.14300000004</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="10"/>
       <c r="B285" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C285" s="14">
         <v>23970</v>
@@ -25019,28 +25014,28 @@
         <v>352818.03989999997</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="10"/>
       <c r="B286" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C286" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D286" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E286" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F286" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G286" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H286" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I286" s="14">
         <v>14905</v>
@@ -25073,7 +25068,7 @@
         <v>124585.53170000001</v>
       </c>
       <c r="S286" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T286" s="8">
         <v>584.70873630000006</v>
@@ -25091,10 +25086,10 @@
         <v>16080.543089999999</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="10"/>
       <c r="B287" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C287" s="14">
         <v>3620</v>
@@ -25163,10 +25158,10 @@
         <v>34618.641920000002</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="10"/>
       <c r="B288" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C288" s="14">
         <v>5145</v>
@@ -25235,10 +25230,10 @@
         <v>6739.5452519999999</v>
       </c>
     </row>
-    <row r="289" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="10"/>
       <c r="B289" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C289" s="14">
         <v>25232</v>
@@ -25307,10 +25302,10 @@
         <v>124433.1002</v>
       </c>
     </row>
-    <row r="290" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="10"/>
       <c r="B290" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C290" s="14">
         <v>289114</v>
@@ -25379,10 +25374,10 @@
         <v>3076364.9559999998</v>
       </c>
     </row>
-    <row r="291" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="10"/>
       <c r="B291" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C291" s="14">
         <v>68544</v>
@@ -25451,10 +25446,10 @@
         <v>845679.90639999998</v>
       </c>
     </row>
-    <row r="292" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="10"/>
       <c r="B292" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C292" s="14">
         <v>62221</v>
@@ -25523,82 +25518,82 @@
         <v>170347.93280000001</v>
       </c>
     </row>
-    <row r="293" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="10"/>
       <c r="B293" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C293" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D293" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E293" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F293" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G293" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H293" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I293" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J293" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K293" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L293" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M293" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N293" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O293" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P293" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q293" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R293" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S293" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T293" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U293" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V293" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W293" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X293" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="294" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="294" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="10"/>
       <c r="B294" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C294" s="14">
         <v>71200</v>
@@ -25667,10 +25662,10 @@
         <v>1048382.441</v>
       </c>
     </row>
-    <row r="295" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="10"/>
       <c r="B295" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C295" s="14">
         <v>9377</v>
@@ -25739,10 +25734,10 @@
         <v>88822</v>
       </c>
     </row>
-    <row r="296" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="10"/>
       <c r="B296" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C296" s="14">
         <v>9896</v>
@@ -25811,10 +25806,10 @@
         <v>327436.67599999998</v>
       </c>
     </row>
-    <row r="297" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="10"/>
       <c r="B297" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C297" s="14">
         <v>41306</v>
@@ -25883,10 +25878,10 @@
         <v>595696</v>
       </c>
     </row>
-    <row r="298" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="10"/>
       <c r="B298" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C298" s="14">
         <v>26570</v>
@@ -25928,37 +25923,37 @@
         <v>196795</v>
       </c>
       <c r="P298" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q298" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R298" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S298" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T298" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U298" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V298" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W298" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X298" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="299" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="299" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="10"/>
       <c r="B299" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C299" s="14">
         <v>-72725</v>
@@ -26027,10 +26022,10 @@
         <v>-1612554.608</v>
       </c>
     </row>
-    <row r="300" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="10"/>
       <c r="B300" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C300" s="14">
         <v>-72725</v>
@@ -26099,10 +26094,10 @@
         <v>-1612554.608</v>
       </c>
     </row>
-    <row r="301" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="10"/>
       <c r="B301" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C301" s="12"/>
       <c r="D301" s="12"/>
@@ -26127,10 +26122,10 @@
       <c r="W301" s="6"/>
       <c r="X301" s="6"/>
     </row>
-    <row r="302" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="10"/>
       <c r="B302" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C302" s="14">
         <v>32896</v>
@@ -26199,10 +26194,10 @@
         <v>438753.09039999999</v>
       </c>
     </row>
-    <row r="303" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="10"/>
       <c r="B303" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C303" s="14">
         <v>32896</v>
@@ -26271,226 +26266,226 @@
         <v>438753.09039999999</v>
       </c>
     </row>
-    <row r="304" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="10"/>
       <c r="B304" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D304" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E304" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F304" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G304" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H304" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I304" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J304" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K304" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L304" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M304" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N304" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O304" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P304" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q304" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R304" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S304" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T304" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U304" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V304" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W304" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X304" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="305" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="10"/>
       <c r="B305" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D305" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E305" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F305" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G305" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H305" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I305" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J305" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K305" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L305" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M305" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N305" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O305" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P305" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q305" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R305" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S305" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T305" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U305" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V305" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W305" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X305" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="306" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="10"/>
       <c r="B306" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C306" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D306" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E306" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F306" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G306" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H306" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I306" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J306" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K306" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L306" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M306" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N306" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O306" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P306" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q306" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R306" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S306" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T306" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U306" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V306" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W306" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X306" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="10"/>
       <c r="B307" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C307" s="14">
         <v>322010</v>
@@ -26559,10 +26554,10 @@
         <v>3515118.0460000001</v>
       </c>
     </row>
-    <row r="308" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="10"/>
       <c r="B308" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C308" s="14">
         <v>-105621</v>
@@ -26631,10 +26626,10 @@
         <v>-2051307.699</v>
       </c>
     </row>
-    <row r="309" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="10"/>
       <c r="B309" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C309" s="14">
         <v>-34421</v>
@@ -26703,10 +26698,10 @@
         <v>-1002925.258</v>
       </c>
     </row>
-    <row r="310" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="10"/>
       <c r="B310" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C310" s="12"/>
       <c r="D310" s="12"/>
@@ -26731,10 +26726,10 @@
       <c r="W310" s="6"/>
       <c r="X310" s="6"/>
     </row>
-    <row r="311" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="10"/>
       <c r="B311" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C311" s="14">
         <v>14554</v>
@@ -26803,10 +26798,10 @@
         <v>46094.464260000001</v>
       </c>
     </row>
-    <row r="312" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="10"/>
       <c r="B312" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C312" s="14">
         <v>14554</v>
@@ -26875,82 +26870,82 @@
         <v>46094.464260000001</v>
       </c>
     </row>
-    <row r="313" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="10"/>
       <c r="B313" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D313" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E313" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F313" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G313" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H313" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I313" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J313" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K313" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L313" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M313" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N313" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O313" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P313" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q313" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R313" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S313" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T313" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U313" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V313" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W313" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X313" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="10"/>
       <c r="B314" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C314" s="14">
         <v>120175</v>
@@ -27019,10 +27014,10 @@
         <v>2097402.5099999998</v>
       </c>
     </row>
-    <row r="315" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="10"/>
       <c r="B315" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C315" s="14">
         <v>119680</v>
@@ -27091,10 +27086,10 @@
         <v>2111303.5099999998</v>
       </c>
     </row>
-    <row r="316" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="10"/>
       <c r="B316" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C316" s="14">
         <v>495</v>
@@ -27163,7 +27158,7 @@
         <v>-13901</v>
       </c>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A317" s="10"/>
       <c r="B317" s="19"/>
       <c r="C317" s="10"/>
@@ -27177,10 +27172,10 @@
       <c r="K317" s="10"/>
       <c r="L317" s="10"/>
     </row>
-    <row r="318" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="10"/>
       <c r="B318" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C318" s="12"/>
       <c r="D318" s="12"/>
@@ -27205,10 +27200,10 @@
       <c r="W318" s="6"/>
       <c r="X318" s="6"/>
     </row>
-    <row r="319" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="10"/>
       <c r="B319" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C319" s="13">
         <v>16.809719680000001</v>
@@ -27277,10 +27272,10 @@
         <v>8.2767296937929</v>
       </c>
     </row>
-    <row r="320" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="10"/>
       <c r="B320" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C320" s="13">
         <v>14.168734969999999</v>
@@ -27349,10 +27344,10 @@
         <v>7.3393065700274001</v>
       </c>
     </row>
-    <row r="321" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="10"/>
       <c r="B321" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C321" s="13">
         <v>0.90888964000000005</v>
@@ -27421,10 +27416,10 @@
         <v>0.11845905428844999</v>
       </c>
     </row>
-    <row r="322" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="10"/>
       <c r="B322" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C322" s="13">
         <v>1.224049065</v>
@@ -27493,10 +27488,10 @@
         <v>1.4286747900315</v>
       </c>
     </row>
-    <row r="323" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="10"/>
       <c r="B323" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C323" s="13">
         <v>25.014662640000001</v>
@@ -27565,10 +27560,10 @@
         <v>19.875308278932</v>
       </c>
     </row>
-    <row r="324" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="10"/>
       <c r="B324" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C324" s="13">
         <v>-8.2049429610000004</v>
@@ -27637,10 +27632,10 @@
         <v>-11.598578585139</v>
       </c>
     </row>
-    <row r="325" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="10"/>
       <c r="B325" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C325" s="13">
         <v>-2.6739222470000001</v>
@@ -27709,7 +27704,7 @@
         <v>-5.6707764640110998</v>
       </c>
     </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A326" s="10"/>
       <c r="B326" s="10"/>
       <c r="C326" s="10"/>
@@ -27723,10 +27718,10 @@
       <c r="K326" s="10"/>
       <c r="L326" s="10"/>
     </row>
-    <row r="327" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="10"/>
       <c r="B327" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C327" s="12"/>
       <c r="D327" s="12"/>
@@ -27751,10 +27746,10 @@
       <c r="W327" s="6"/>
       <c r="X327" s="6"/>
     </row>
-    <row r="328" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="10"/>
       <c r="B328" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C328" s="14">
         <v>322048</v>
@@ -27823,10 +27818,10 @@
         <v>3537148.3509999998</v>
       </c>
     </row>
-    <row r="329" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="10"/>
       <c r="B329" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C329" s="14">
         <v>90892</v>
@@ -27895,10 +27890,10 @@
         <v>1237935.7549999999</v>
       </c>
     </row>
-    <row r="330" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="10"/>
       <c r="B330" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C330" s="14">
         <v>56915</v>
@@ -27967,10 +27962,10 @@
         <v>257917.5336</v>
       </c>
     </row>
-    <row r="331" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="10"/>
       <c r="B331" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C331" s="14">
         <v>13859</v>
@@ -28039,10 +28034,10 @@
         <v>113833.32889999999</v>
       </c>
     </row>
-    <row r="332" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="10"/>
       <c r="B332" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C332" s="14">
         <v>66751</v>
@@ -28111,82 +28106,82 @@
         <v>762908.33849999995</v>
       </c>
     </row>
-    <row r="333" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="10"/>
       <c r="B333" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C333" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D333" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E333" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F333" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G333" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H333" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I333" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J333" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K333" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L333" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M333" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N333" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O333" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P333" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q333" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R333" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S333" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T333" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U333" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V333" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W333" s="8" t="s">
         <v>12</v>
       </c>
       <c r="X333" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="334" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="334" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="10"/>
       <c r="B334" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C334" s="14">
         <v>5905</v>
@@ -28255,10 +28250,10 @@
         <v>466819.28159999999</v>
       </c>
     </row>
-    <row r="335" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="10"/>
       <c r="B335" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C335" s="14">
         <v>20696</v>
@@ -28327,82 +28322,82 @@
         <v>387120.67019999999</v>
       </c>
     </row>
-    <row r="336" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="10"/>
       <c r="B336" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D336" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E336" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F336" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G336" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H336" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I336" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J336" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K336" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L336" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M336" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N336" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O336" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P336" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q336" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R336" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S336" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T336" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U336" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V336" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W336" s="8" t="s">
         <v>12</v>
       </c>
       <c r="X336" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="337" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="337" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="10"/>
       <c r="B337" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C337" s="14">
         <v>30929</v>
@@ -28471,10 +28466,10 @@
         <v>310613.44270000001</v>
       </c>
     </row>
-    <row r="338" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="10"/>
       <c r="B338" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C338" s="14">
         <v>36101</v>
@@ -28543,7 +28538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A339" s="10"/>
       <c r="B339" s="19"/>
       <c r="C339" s="10"/>
@@ -28557,10 +28552,10 @@
       <c r="K339" s="10"/>
       <c r="L339" s="10"/>
     </row>
-    <row r="340" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="10"/>
       <c r="B340" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C340" s="12"/>
       <c r="D340" s="12"/>
@@ -28585,10 +28580,10 @@
       <c r="W340" s="6"/>
       <c r="X340" s="6"/>
     </row>
-    <row r="341" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="10"/>
       <c r="B341" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C341" s="13">
         <v>2.4026536470000002</v>
@@ -28657,10 +28652,10 @@
         <v>1.7562818228162</v>
       </c>
     </row>
-    <row r="342" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="10"/>
       <c r="B342" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C342" s="13">
         <v>1.607724785</v>
@@ -28729,10 +28724,10 @@
         <v>2.1888717706443002</v>
       </c>
     </row>
-    <row r="343" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="10"/>
       <c r="B343" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C343" s="13">
         <v>2.8044294779999999</v>
@@ -28801,7 +28796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A344" s="10"/>
       <c r="B344" s="10"/>
       <c r="C344" s="10"/>
@@ -28815,10 +28810,10 @@
       <c r="K344" s="10"/>
       <c r="L344" s="10"/>
     </row>
-    <row r="345" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="10"/>
       <c r="B345" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C345" s="12"/>
       <c r="D345" s="12"/>
@@ -28843,10 +28838,10 @@
       <c r="W345" s="6"/>
       <c r="X345" s="6"/>
     </row>
-    <row r="346" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="10"/>
       <c r="B346" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C346" s="14">
         <v>420114</v>
@@ -28915,10 +28910,10 @@
         <v>2486943.15</v>
       </c>
     </row>
-    <row r="347" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="10"/>
       <c r="B347" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C347" s="14">
         <v>554290</v>
@@ -28987,10 +28982,10 @@
         <v>4104217.5210000002</v>
       </c>
     </row>
-    <row r="348" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="10"/>
       <c r="B348" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C348" s="14">
         <v>-134176</v>
@@ -29059,7 +29054,7 @@
         <v>-1617274.371</v>
       </c>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A349" s="10"/>
       <c r="B349" s="10"/>
       <c r="C349" s="10"/>
@@ -29073,10 +29068,10 @@
       <c r="K349" s="10"/>
       <c r="L349" s="10"/>
     </row>
-    <row r="350" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="10"/>
       <c r="B350" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C350" s="12"/>
       <c r="D350" s="12"/>
@@ -29101,10 +29096,10 @@
       <c r="W350" s="6"/>
       <c r="X350" s="6"/>
     </row>
-    <row r="351" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="10"/>
       <c r="B351" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C351" s="13">
         <v>29.197870000000002</v>
@@ -29173,10 +29168,10 @@
         <v>33.783797849999999</v>
       </c>
     </row>
-    <row r="352" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="10"/>
       <c r="B352" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C352" s="13">
         <v>31.383209999999998</v>
@@ -29245,7 +29240,7 @@
         <v>37.960816360000003</v>
       </c>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A353" s="10"/>
       <c r="B353" s="10"/>
       <c r="C353" s="10"/>
@@ -29259,10 +29254,10 @@
       <c r="K353" s="10"/>
       <c r="L353" s="10"/>
     </row>
-    <row r="354" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="10"/>
       <c r="B354" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C354" s="12"/>
       <c r="D354" s="12"/>
@@ -29287,10 +29282,10 @@
       <c r="W354" s="6"/>
       <c r="X354" s="6"/>
     </row>
-    <row r="355" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="10"/>
       <c r="B355" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C355" s="13">
         <v>5302.4895310000002</v>
@@ -29359,10 +29354,10 @@
         <v>13483.563410000001</v>
       </c>
     </row>
-    <row r="356" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="10"/>
       <c r="B356" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C356" s="13">
         <v>2192.5603839999999</v>
@@ -29431,10 +29426,10 @@
         <v>3298.9514210000002</v>
       </c>
     </row>
-    <row r="357" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="10"/>
       <c r="B357" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C357" s="13">
         <v>736.72095999999999</v>
@@ -29503,10 +29498,10 @@
         <v>1003.025078</v>
       </c>
     </row>
-    <row r="358" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="10"/>
       <c r="B358" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C358" s="13">
         <v>58.033448</v>
@@ -29575,10 +29570,10 @@
         <v>891.45962699999995</v>
       </c>
     </row>
-    <row r="359" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="10"/>
       <c r="B359" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C359" s="13">
         <v>230.16984199999999</v>
@@ -29647,10 +29642,10 @@
         <v>811.26597400000003</v>
       </c>
     </row>
-    <row r="360" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="10"/>
       <c r="B360" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C360" s="13">
         <v>69.077888999999999</v>
@@ -29719,10 +29714,10 @@
         <v>622.81942500000002</v>
       </c>
     </row>
-    <row r="361" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="10"/>
       <c r="B361" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C361" s="13" t="s">
         <v>12</v>
@@ -29791,10 +29786,10 @@
         <v>358.98056300000002</v>
       </c>
     </row>
-    <row r="362" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="10"/>
       <c r="B362" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C362" s="13">
         <v>104.318302</v>
@@ -29863,10 +29858,10 @@
         <v>457.16437100000002</v>
       </c>
     </row>
-    <row r="363" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="10"/>
       <c r="B363" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C363" s="13">
         <v>135.0976</v>
@@ -29935,10 +29930,10 @@
         <v>313.85785900000002</v>
       </c>
     </row>
-    <row r="364" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="10"/>
       <c r="B364" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C364" s="13">
         <v>5.1063390000000002</v>
@@ -30007,10 +30002,10 @@
         <v>306.2955</v>
       </c>
     </row>
-    <row r="365" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="10"/>
       <c r="B365" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C365" s="13">
         <v>71.115295000000003</v>
@@ -30079,7 +30074,7 @@
         <v>336.09506299999998</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A366" s="10"/>
       <c r="B366" s="10"/>
       <c r="C366" s="10"/>
@@ -30093,10 +30088,10 @@
       <c r="K366" s="10"/>
       <c r="L366" s="10"/>
     </row>
-    <row r="367" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="10"/>
       <c r="B367" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C367" s="13">
         <v>6526.3663710000001</v>
@@ -30165,10 +30160,10 @@
         <v>21954.866452999999</v>
       </c>
     </row>
-    <row r="368" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="10"/>
       <c r="B368" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C368" s="13">
         <v>251.10243399999999</v>
@@ -30237,10 +30232,10 @@
         <v>5097.7275820000004</v>
       </c>
     </row>
-    <row r="369" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="10"/>
       <c r="B369" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C369" s="13">
         <v>600.14246300000002</v>
@@ -30309,10 +30304,10 @@
         <v>4741.0978930000001</v>
       </c>
     </row>
-    <row r="370" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="10"/>
       <c r="B370" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C370" s="13">
         <v>142.53308799999999</v>
@@ -30381,10 +30376,10 @@
         <v>1409.0733090000001</v>
       </c>
     </row>
-    <row r="371" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="10"/>
       <c r="B371" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C371" s="13">
         <v>496.02387099999999</v>
@@ -30453,10 +30448,10 @@
         <v>775.93893300000002</v>
       </c>
     </row>
-    <row r="372" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="10"/>
       <c r="B372" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C372" s="13">
         <v>646.05907400000001</v>
@@ -30525,10 +30520,10 @@
         <v>448.37706500000002</v>
       </c>
     </row>
-    <row r="373" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="10"/>
       <c r="B373" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C373" s="13">
         <v>217.285695</v>
@@ -30597,10 +30592,10 @@
         <v>825.23632899999996</v>
       </c>
     </row>
-    <row r="374" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="10"/>
       <c r="B374" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C374" s="13">
         <v>254.910144</v>
@@ -30669,10 +30664,10 @@
         <v>566.68063199999995</v>
       </c>
     </row>
-    <row r="375" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="10"/>
       <c r="B375" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C375" s="13">
         <v>168.52721600000001</v>
@@ -30741,10 +30736,10 @@
         <v>426.62092100000001</v>
       </c>
     </row>
-    <row r="376" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="10"/>
       <c r="B376" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C376" s="13">
         <v>390.40307200000001</v>
@@ -30813,10 +30808,10 @@
         <v>452.97227700000002</v>
       </c>
     </row>
-    <row r="377" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="10"/>
       <c r="B377" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C377" s="13">
         <v>171.97744</v>
@@ -30885,7 +30880,7 @@
         <v>483.56981400000001</v>
       </c>
     </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A378" s="10"/>
       <c r="B378" s="10"/>
       <c r="C378" s="10"/>
@@ -30899,10 +30894,10 @@
       <c r="K378" s="10"/>
       <c r="L378" s="10"/>
     </row>
-    <row r="379" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="10"/>
       <c r="B379" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C379" s="12"/>
       <c r="D379" s="12"/>
@@ -30927,10 +30922,10 @@
       <c r="W379" s="6"/>
       <c r="X379" s="6"/>
     </row>
-    <row r="380" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="10"/>
       <c r="B380" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C380" s="13">
         <v>-1066.1881249999999</v>
@@ -30999,10 +30994,10 @@
         <v>-3343.108831</v>
       </c>
     </row>
-    <row r="381" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="10"/>
       <c r="B381" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C381" s="13">
         <v>-1797.519634</v>
@@ -31071,10 +31066,10 @@
         <v>-8138.8352459999996</v>
       </c>
     </row>
-    <row r="382" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="10"/>
       <c r="B382" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C382" s="13">
         <v>5522.3237520000002</v>
@@ -31143,10 +31138,10 @@
         <v>12498.58196</v>
       </c>
     </row>
-    <row r="383" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="10"/>
       <c r="B383" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C383" s="13">
         <v>7319.8433859999996</v>
@@ -31215,10 +31210,10 @@
         <v>20637.41721</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="10"/>
       <c r="B384" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C384" s="13">
         <v>38.081744649999997</v>
@@ -31287,10 +31282,10 @@
         <v>1586.3385390000001</v>
       </c>
     </row>
-    <row r="385" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="10"/>
       <c r="B385" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C385" s="13">
         <v>953.36425799999995</v>
@@ -31359,10 +31354,10 @@
         <v>2474.9545389999998</v>
       </c>
     </row>
-    <row r="386" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="10"/>
       <c r="B386" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C386" s="13">
         <v>915.28251330000001</v>
@@ -31431,10 +31426,10 @@
         <v>888.61599999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="10"/>
       <c r="B387" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C387" s="13">
         <v>-304.57510569999999</v>
@@ -31503,10 +31498,10 @@
         <v>-2018.1190019999999</v>
       </c>
     </row>
-    <row r="388" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="10"/>
       <c r="B388" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C388" s="13">
         <v>151.6381931</v>
@@ -31575,10 +31570,10 @@
         <v>115.95575700000001</v>
       </c>
     </row>
-    <row r="389" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="10"/>
       <c r="B389" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C389" s="13">
         <v>456.21329880000002</v>
@@ -31647,10 +31642,10 @@
         <v>2134.0747590000001</v>
       </c>
     </row>
-    <row r="390" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="10"/>
       <c r="B390" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C390" s="13">
         <v>997.82487079999999</v>
@@ -31719,10 +31714,10 @@
         <v>5227.5068789999996</v>
       </c>
     </row>
-    <row r="391" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="10"/>
       <c r="B391" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C391" s="13">
         <v>1183.494827</v>
@@ -31791,10 +31786,10 @@
         <v>5497.5068789999996</v>
       </c>
     </row>
-    <row r="392" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="10"/>
       <c r="B392" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C392" s="13">
         <v>185.66995650000001</v>
@@ -31863,10 +31858,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="393" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="10"/>
       <c r="B393" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C393" s="13">
         <v>50.150993139999997</v>
@@ -31935,10 +31930,10 @@
         <v>25.121615670000001</v>
       </c>
     </row>
-    <row r="394" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="10"/>
       <c r="B394" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C394" s="13">
         <v>55.893362930000002</v>
@@ -32007,10 +32002,10 @@
         <v>49.521615670000003</v>
       </c>
     </row>
-    <row r="395" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="10"/>
       <c r="B395" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C395" s="13">
         <v>5.7423697889999996</v>
@@ -32079,10 +32074,10 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="396" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="10"/>
       <c r="B396" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C396" s="13">
         <v>392.85302000000001</v>
@@ -32151,10 +32146,10 @@
         <v>-1503.0488459999999</v>
       </c>
     </row>
-    <row r="397" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="10"/>
       <c r="B397" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C397" s="13">
         <v>175.7</v>
@@ -32223,10 +32218,10 @@
         <v>-580.08145239999999</v>
       </c>
     </row>
-    <row r="398" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="10"/>
       <c r="B398" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C398" s="13">
         <v>-44.7</v>
@@ -32295,46 +32290,46 @@
         <v>906.1987987</v>
       </c>
     </row>
-    <row r="399" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="10"/>
       <c r="B399" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D399" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E399" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F399" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G399" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H399" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I399" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J399" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K399" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L399" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M399" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N399" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O399" s="7" t="s">
         <v>12</v>
@@ -32349,64 +32344,64 @@
         <v>12</v>
       </c>
       <c r="S399" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T399" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U399" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V399" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W399" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X399" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="400" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="400" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="10"/>
       <c r="B400" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C400" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D400" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E400" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F400" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G400" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H400" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I400" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J400" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K400" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L400" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M400" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N400" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O400" s="7">
         <v>-2021.001962</v>
@@ -32439,10 +32434,10 @@
         <v>-1829.1661919999999</v>
       </c>
     </row>
-    <row r="401" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="10"/>
       <c r="B401" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C401" s="13">
         <v>101</v>
@@ -32511,10 +32506,10 @@
         <v>-711.34948099999997</v>
       </c>
     </row>
-    <row r="402" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="10"/>
       <c r="B402" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C402" s="13">
         <v>-522</v>
@@ -32583,10 +32578,10 @@
         <v>-3966.5950600000001</v>
       </c>
     </row>
-    <row r="403" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="10"/>
       <c r="B403" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C403" s="13">
         <v>522</v>
@@ -32655,46 +32650,46 @@
         <v>-2526.2878500000002</v>
       </c>
     </row>
-    <row r="404" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="10"/>
       <c r="B404" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C404" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D404" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E404" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F404" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G404" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H404" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I404" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J404" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K404" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L404" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M404" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N404" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O404" s="7">
         <v>-36409.210679999997</v>
@@ -32727,7 +32722,7 @@
         <v>-55740.330309999998</v>
       </c>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A405" s="10"/>
       <c r="B405" s="10"/>
       <c r="C405" s="10"/>
@@ -32741,10 +32736,10 @@
       <c r="K405" s="10"/>
       <c r="L405" s="10"/>
     </row>
-    <row r="406" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="10"/>
       <c r="B406" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C406" s="12"/>
       <c r="D406" s="12"/>
@@ -32769,10 +32764,10 @@
       <c r="W406" s="6"/>
       <c r="X406" s="6"/>
     </row>
-    <row r="407" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="10"/>
       <c r="B407" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C407" s="13">
         <v>33.03425</v>
@@ -32841,10 +32836,10 @@
         <v>14.144962364124</v>
       </c>
     </row>
-    <row r="408" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="10"/>
       <c r="B408" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C408" s="13">
         <v>43.787116330000003</v>
@@ -32913,10 +32908,10 @@
         <v>23.355888745013001</v>
       </c>
     </row>
-    <row r="409" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="10"/>
       <c r="B409" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C409" s="13">
         <v>-10.752599999999999</v>
@@ -32985,10 +32980,10 @@
         <v>-9.2109263763613001</v>
       </c>
     </row>
-    <row r="410" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="10"/>
       <c r="B410" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C410" s="13">
         <v>0.22780401477553999</v>
@@ -33057,10 +33052,10 @@
         <v>1.7952995790024</v>
       </c>
     </row>
-    <row r="411" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="10"/>
       <c r="B411" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C411" s="13">
         <v>-6.37798</v>
@@ -33129,10 +33124,10 @@
         <v>-3.7834810976962001</v>
       </c>
     </row>
-    <row r="412" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="10"/>
       <c r="B412" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C412" s="13">
         <v>-3.1225900000000002</v>
@@ -33201,7 +33196,7 @@
         <v>-4.4890962844412998</v>
       </c>
     </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A413" s="10"/>
       <c r="B413" s="10"/>
       <c r="C413" s="10"/>
@@ -33215,10 +33210,10 @@
       <c r="K413" s="10"/>
       <c r="L413" s="10"/>
     </row>
-    <row r="414" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="10"/>
       <c r="B414" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C414" s="12"/>
       <c r="D414" s="12"/>
@@ -33243,10 +33238,10 @@
       <c r="W414" s="6"/>
       <c r="X414" s="6"/>
     </row>
-    <row r="415" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="10"/>
       <c r="B415" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C415" s="13">
         <v>1146.8376195676999</v>
@@ -33315,10 +33310,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="10"/>
       <c r="B416" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C416" s="13">
         <v>107.83283972</v>
@@ -33387,10 +33382,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="10"/>
       <c r="B417" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C417" s="13">
         <v>976.4</v>
@@ -33459,10 +33454,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="10"/>
       <c r="B418" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C418" s="13">
         <v>62.202688159433997</v>
@@ -33531,10 +33526,10 @@
         <v>66.977970392992006</v>
       </c>
     </row>
-    <row r="419" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="10"/>
       <c r="B419" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C419" s="13">
         <v>0.40209168822979002</v>
@@ -33603,7 +33598,7 @@
         <v>123.55591167443001</v>
       </c>
     </row>
-    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A420" s="10"/>
       <c r="B420" s="10"/>
       <c r="C420" s="10"/>
@@ -33617,10 +33612,10 @@
       <c r="K420" s="10"/>
       <c r="L420" s="10"/>
     </row>
-    <row r="421" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="10"/>
       <c r="B421" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C421" s="12"/>
       <c r="D421" s="12"/>
@@ -33645,10 +33640,10 @@
       <c r="W421" s="6"/>
       <c r="X421" s="6"/>
     </row>
-    <row r="422" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="10"/>
       <c r="B422" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C422" s="13">
         <v>82.58</v>
@@ -33717,10 +33712,10 @@
         <v>200.43379999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="10"/>
       <c r="B423" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C423" s="13">
         <v>77.005116666667007</v>
@@ -33789,7 +33784,7 @@
         <v>200.15530000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A424" s="10"/>
       <c r="B424" s="10"/>
       <c r="C424" s="10"/>
@@ -33803,10 +33798,10 @@
       <c r="K424" s="10"/>
       <c r="L424" s="10"/>
     </row>
-    <row r="425" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="10"/>
       <c r="B425" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C425" s="12"/>
       <c r="D425" s="12"/>
@@ -33831,10 +33826,10 @@
       <c r="W425" s="6"/>
       <c r="X425" s="6"/>
     </row>
-    <row r="426" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="10"/>
       <c r="B426" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C426" s="14">
         <v>9249.8482863999998</v>
@@ -33903,10 +33898,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="10"/>
       <c r="B427" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C427" s="14">
         <v>8312.4377774999994</v>
@@ -33975,10 +33970,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="10"/>
       <c r="B428" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C428" s="14">
         <v>7944.5567775</v>
@@ -34047,10 +34042,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="10"/>
       <c r="B429" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C429" s="14">
         <v>367.88099999999997</v>
@@ -34119,10 +34114,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="10"/>
       <c r="B430" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C430" s="14">
         <v>684.55737099999999</v>
@@ -34191,10 +34186,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="10"/>
       <c r="B431" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C431" s="14">
         <v>252.85313790000001</v>
@@ -34263,7 +34258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="10"/>
       <c r="B432" s="11"/>
       <c r="C432" s="14"/>
@@ -34289,10 +34284,10 @@
       <c r="W432" s="8"/>
       <c r="X432" s="8"/>
     </row>
-    <row r="433" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="10"/>
       <c r="B433" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C433" s="13">
         <v>57.753328807613002</v>
@@ -34361,10 +34356,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="10"/>
       <c r="B434" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C434" s="13">
         <v>89.865669999999994</v>
@@ -34433,10 +34428,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="10"/>
       <c r="B435" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C435" s="13">
         <v>7.4006999999999996</v>
@@ -34505,10 +34500,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="10"/>
       <c r="B436" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C436" s="13">
         <v>12.122861685188999</v>
@@ -34577,7 +34572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A437" s="10"/>
       <c r="B437" s="10"/>
       <c r="C437" s="10"/>
@@ -34591,10 +34586,10 @@
       <c r="K437" s="10"/>
       <c r="L437" s="10"/>
     </row>
-    <row r="438" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="10"/>
       <c r="B438" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C438" s="13"/>
       <c r="D438" s="13"/>
@@ -34619,10 +34614,10 @@
       <c r="W438" s="7"/>
       <c r="X438" s="7"/>
     </row>
-    <row r="439" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="10"/>
       <c r="B439" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C439" s="14">
         <v>453.36417169999999</v>
@@ -34691,10 +34686,10 @@
         <v>5721.2144883000001</v>
       </c>
     </row>
-    <row r="440" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="10"/>
       <c r="B440" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C440" s="14">
         <v>213.10439959999999</v>
@@ -34763,10 +34758,10 @@
         <v>1705.5098250999999</v>
       </c>
     </row>
-    <row r="441" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="10"/>
       <c r="B441" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C441" s="14">
         <v>34.091000000000001</v>
@@ -34835,7 +34830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A442" s="10"/>
       <c r="B442" s="10"/>
       <c r="C442" s="10"/>
@@ -34849,10 +34844,10 @@
       <c r="K442" s="10"/>
       <c r="L442" s="10"/>
     </row>
-    <row r="443" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="10"/>
       <c r="B443" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C443" s="12"/>
       <c r="D443" s="12"/>
@@ -34877,10 +34872,10 @@
       <c r="W443" s="6"/>
       <c r="X443" s="6"/>
     </row>
-    <row r="444" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="10"/>
       <c r="B444" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C444" s="13">
         <v>4.2393999999999998</v>
@@ -34949,10 +34944,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="10"/>
       <c r="B445" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C445" s="13">
         <v>22.517600000000002</v>
@@ -35021,10 +35016,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="10"/>
       <c r="B446" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C446" s="13">
         <v>5.3769999999999998</v>
@@ -35093,10 +35088,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="10"/>
       <c r="B447" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C447" s="13">
         <v>13.443</v>
@@ -35165,7 +35160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A448" s="10"/>
       <c r="B448" s="10"/>
       <c r="C448" s="10"/>
@@ -35179,7 +35174,7 @@
       <c r="K448" s="10"/>
       <c r="L448" s="10"/>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="10"/>
       <c r="B449" s="10"/>
       <c r="C449" s="10"/>
@@ -35193,9 +35188,9 @@
       <c r="K449" s="10"/>
       <c r="L449" s="10"/>
     </row>
-    <row r="450" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B450" s="25"/>
       <c r="C450" s="25"/>
@@ -35209,7 +35204,7 @@
       <c r="K450" s="25"/>
       <c r="L450" s="25"/>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="10"/>
       <c r="B451" s="10"/>
       <c r="C451" s="10"/>
@@ -35223,12 +35218,12 @@
       <c r="K451" s="10"/>
       <c r="L451" s="10"/>
     </row>
-    <row r="452" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B452" s="25" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
@@ -35241,12 +35236,12 @@
       <c r="K452" s="25"/>
       <c r="L452" s="25"/>
     </row>
-    <row r="453" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B453" s="25" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
@@ -35259,12 +35254,12 @@
       <c r="K453" s="25"/>
       <c r="L453" s="25"/>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B454" s="25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C454" s="25"/>
       <c r="D454" s="25"/>
@@ -35277,12 +35272,12 @@
       <c r="K454" s="25"/>
       <c r="L454" s="25"/>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B455" s="25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
@@ -35295,12 +35290,12 @@
       <c r="K455" s="25"/>
       <c r="L455" s="25"/>
     </row>
-    <row r="456" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B456" s="25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
@@ -35313,12 +35308,12 @@
       <c r="K456" s="25"/>
       <c r="L456" s="25"/>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B457" s="25" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
@@ -35331,12 +35326,12 @@
       <c r="K457" s="25"/>
       <c r="L457" s="25"/>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B458" s="25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
@@ -35349,12 +35344,12 @@
       <c r="K458" s="25"/>
       <c r="L458" s="25"/>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B459" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C459" s="25"/>
       <c r="D459" s="25"/>
@@ -35367,12 +35362,12 @@
       <c r="K459" s="25"/>
       <c r="L459" s="25"/>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B460" s="25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
@@ -35385,12 +35380,12 @@
       <c r="K460" s="25"/>
       <c r="L460" s="25"/>
     </row>
-    <row r="461" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B461" s="25" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
@@ -35403,12 +35398,12 @@
       <c r="K461" s="25"/>
       <c r="L461" s="25"/>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B462" s="25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
@@ -35421,12 +35416,12 @@
       <c r="K462" s="25"/>
       <c r="L462" s="25"/>
     </row>
-    <row r="463" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B463" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
@@ -35439,12 +35434,12 @@
       <c r="K463" s="25"/>
       <c r="L463" s="25"/>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B464" s="25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
@@ -35457,12 +35452,12 @@
       <c r="K464" s="25"/>
       <c r="L464" s="25"/>
     </row>
-    <row r="465" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B465" s="25" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
@@ -35475,12 +35470,12 @@
       <c r="K465" s="25"/>
       <c r="L465" s="25"/>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" s="21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B466" s="25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
@@ -35493,12 +35488,12 @@
       <c r="K466" s="25"/>
       <c r="L466" s="25"/>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" s="21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B467" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
@@ -35511,12 +35506,12 @@
       <c r="K467" s="25"/>
       <c r="L467" s="25"/>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" s="21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B468" s="25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
@@ -35529,12 +35524,12 @@
       <c r="K468" s="25"/>
       <c r="L468" s="25"/>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B469" s="25" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
@@ -35547,12 +35542,12 @@
       <c r="K469" s="25"/>
       <c r="L469" s="25"/>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" s="21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B470" s="25" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
@@ -35565,12 +35560,12 @@
       <c r="K470" s="25"/>
       <c r="L470" s="25"/>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B471" s="25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
@@ -35583,12 +35578,12 @@
       <c r="K471" s="25"/>
       <c r="L471" s="25"/>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" s="21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B472" s="25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
@@ -35601,12 +35596,12 @@
       <c r="K472" s="25"/>
       <c r="L472" s="25"/>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B473" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
@@ -35619,12 +35614,12 @@
       <c r="K473" s="25"/>
       <c r="L473" s="25"/>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B474" s="25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
@@ -35637,12 +35632,12 @@
       <c r="K474" s="25"/>
       <c r="L474" s="25"/>
     </row>
-    <row r="475" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B475" s="25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
@@ -35655,7 +35650,7 @@
       <c r="K475" s="25"/>
       <c r="L475" s="25"/>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" s="10"/>
       <c r="B476" s="10"/>
       <c r="C476" s="10"/>
@@ -35669,7 +35664,7 @@
       <c r="K476" s="10"/>
       <c r="L476" s="10"/>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" s="10"/>
       <c r="B477" s="10"/>
       <c r="C477" s="10"/>
@@ -35683,10 +35678,10 @@
       <c r="K477" s="10"/>
       <c r="L477" s="10"/>
     </row>
-    <row r="478" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A478" s="10"/>
       <c r="B478" s="22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C478" s="10"/>
       <c r="D478" s="10"/>
@@ -35699,7 +35694,7 @@
       <c r="K478" s="10"/>
       <c r="L478" s="10"/>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" s="10"/>
       <c r="B479" s="10"/>
       <c r="C479" s="10"/>
@@ -35713,13 +35708,13 @@
       <c r="K479" s="10"/>
       <c r="L479" s="10"/>
     </row>
-    <row r="480" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="10"/>
       <c r="B480" s="23" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C480" s="25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D480" s="26"/>
       <c r="E480" s="26"/>
@@ -35731,7 +35726,7 @@
       <c r="K480" s="26"/>
       <c r="L480" s="26"/>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" s="10"/>
       <c r="B481" s="10"/>
       <c r="C481" s="10"/>
@@ -35745,13 +35740,13 @@
       <c r="K481" s="10"/>
       <c r="L481" s="10"/>
     </row>
-    <row r="482" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A482" s="10"/>
       <c r="B482" s="23" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C482" s="25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D482" s="26"/>
       <c r="E482" s="26"/>
@@ -35763,7 +35758,7 @@
       <c r="K482" s="26"/>
       <c r="L482" s="26"/>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" s="10"/>
       <c r="B483" s="10"/>
       <c r="C483" s="10"/>
@@ -35777,13 +35772,13 @@
       <c r="K483" s="10"/>
       <c r="L483" s="10"/>
     </row>
-    <row r="484" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A484" s="10"/>
       <c r="B484" s="23" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C484" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D484" s="26"/>
       <c r="E484" s="26"/>
@@ -35795,11 +35790,11 @@
       <c r="K484" s="26"/>
       <c r="L484" s="26"/>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" s="10"/>
       <c r="B485" s="23"/>
       <c r="C485" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D485" s="26"/>
       <c r="E485" s="26"/>
@@ -35811,7 +35806,7 @@
       <c r="K485" s="26"/>
       <c r="L485" s="26"/>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" s="10"/>
       <c r="B486" s="10"/>
       <c r="C486" s="10"/>
@@ -35825,13 +35820,13 @@
       <c r="K486" s="10"/>
       <c r="L486" s="10"/>
     </row>
-    <row r="487" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A487" s="10"/>
       <c r="B487" s="23" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C487" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D487" s="26"/>
       <c r="E487" s="26"/>
@@ -35843,7 +35838,7 @@
       <c r="K487" s="26"/>
       <c r="L487" s="26"/>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" s="10"/>
       <c r="B488" s="10"/>
       <c r="C488" s="10"/>
@@ -35857,13 +35852,13 @@
       <c r="K488" s="10"/>
       <c r="L488" s="10"/>
     </row>
-    <row r="489" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A489" s="10"/>
       <c r="B489" s="23" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C489" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D489" s="26"/>
       <c r="E489" s="26"/>
@@ -35875,13 +35870,13 @@
       <c r="K489" s="26"/>
       <c r="L489" s="26"/>
     </row>
-    <row r="490" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="10"/>
       <c r="B490" s="23" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C490" s="25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D490" s="26"/>
       <c r="E490" s="26"/>
@@ -35893,10 +35888,10 @@
       <c r="K490" s="26"/>
       <c r="L490" s="26"/>
     </row>
-    <row r="491" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A491" s="10"/>
       <c r="B491" s="23" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="26"/>
@@ -35909,10 +35904,10 @@
       <c r="K491" s="26"/>
       <c r="L491" s="26"/>
     </row>
-    <row r="492" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A492" s="10"/>
       <c r="B492" s="23" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="26"/>
@@ -35925,7 +35920,7 @@
       <c r="K492" s="26"/>
       <c r="L492" s="26"/>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" s="10"/>
       <c r="B493" s="10"/>
       <c r="C493" s="10"/>
@@ -35939,13 +35934,13 @@
       <c r="K493" s="10"/>
       <c r="L493" s="10"/>
     </row>
-    <row r="494" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A494" s="10"/>
       <c r="B494" s="23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C494" s="25" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D494" s="26"/>
       <c r="E494" s="26"/>
@@ -35957,13 +35952,13 @@
       <c r="K494" s="26"/>
       <c r="L494" s="26"/>
     </row>
-    <row r="495" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A495" s="10"/>
       <c r="B495" s="23" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C495" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D495" s="25"/>
       <c r="E495" s="25"/>
@@ -35975,7 +35970,7 @@
       <c r="K495" s="25"/>
       <c r="L495" s="25"/>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" s="10"/>
       <c r="B496" s="10"/>
       <c r="C496" s="10"/>
@@ -35989,13 +35984,13 @@
       <c r="K496" s="10"/>
       <c r="L496" s="10"/>
     </row>
-    <row r="497" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A497" s="10"/>
       <c r="B497" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C497" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D497" s="26"/>
       <c r="E497" s="26"/>
@@ -36007,7 +36002,7 @@
       <c r="K497" s="26"/>
       <c r="L497" s="26"/>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" s="10"/>
       <c r="B498" s="10"/>
       <c r="C498" s="10"/>
@@ -36021,13 +36016,13 @@
       <c r="K498" s="10"/>
       <c r="L498" s="10"/>
     </row>
-    <row r="499" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A499" s="10"/>
       <c r="B499" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C499" s="25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D499" s="26"/>
       <c r="E499" s="26"/>
@@ -36039,7 +36034,7 @@
       <c r="K499" s="26"/>
       <c r="L499" s="26"/>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" s="10"/>
       <c r="B500" s="10"/>
       <c r="C500" s="10"/>
@@ -36053,13 +36048,13 @@
       <c r="K500" s="10"/>
       <c r="L500" s="10"/>
     </row>
-    <row r="501" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A501" s="10"/>
       <c r="B501" s="23" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C501" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D501" s="26"/>
       <c r="E501" s="26"/>
@@ -36071,7 +36066,7 @@
       <c r="K501" s="26"/>
       <c r="L501" s="26"/>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" s="10"/>
       <c r="B502" s="10"/>
       <c r="C502" s="10"/>
@@ -36085,13 +36080,13 @@
       <c r="K502" s="10"/>
       <c r="L502" s="10"/>
     </row>
-    <row r="503" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A503" s="10"/>
       <c r="B503" s="23" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C503" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D503" s="26"/>
       <c r="E503" s="26"/>
@@ -36103,13 +36098,13 @@
       <c r="K503" s="26"/>
       <c r="L503" s="26"/>
     </row>
-    <row r="504" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="10"/>
       <c r="B504" s="23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C504" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D504" s="26"/>
       <c r="E504" s="26"/>
@@ -36121,7 +36116,7 @@
       <c r="K504" s="26"/>
       <c r="L504" s="26"/>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" s="10"/>
       <c r="B505" s="10"/>
       <c r="C505" s="10"/>
@@ -36135,13 +36130,13 @@
       <c r="K505" s="10"/>
       <c r="L505" s="10"/>
     </row>
-    <row r="506" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A506" s="10"/>
       <c r="B506" s="23" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C506" s="25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D506" s="26"/>
       <c r="E506" s="26"/>
@@ -36153,7 +36148,7 @@
       <c r="K506" s="26"/>
       <c r="L506" s="26"/>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" s="10"/>
       <c r="B507" s="10"/>
       <c r="C507" s="10"/>
@@ -36167,13 +36162,13 @@
       <c r="K507" s="10"/>
       <c r="L507" s="10"/>
     </row>
-    <row r="508" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A508" s="10"/>
       <c r="B508" s="24" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C508" s="25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D508" s="26"/>
       <c r="E508" s="26"/>
@@ -36185,13 +36180,13 @@
       <c r="K508" s="26"/>
       <c r="L508" s="26"/>
     </row>
-    <row r="509" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A509" s="10"/>
       <c r="B509" s="23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C509" s="25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D509" s="26"/>
       <c r="E509" s="26"/>
@@ -36203,7 +36198,7 @@
       <c r="K509" s="26"/>
       <c r="L509" s="26"/>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" s="10"/>
       <c r="B510" s="10"/>
       <c r="C510" s="10"/>
@@ -36217,13 +36212,13 @@
       <c r="K510" s="10"/>
       <c r="L510" s="10"/>
     </row>
-    <row r="511" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A511" s="10"/>
       <c r="B511" s="23" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C511" s="25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D511" s="26"/>
       <c r="E511" s="26"/>
@@ -36235,11 +36230,11 @@
       <c r="K511" s="26"/>
       <c r="L511" s="26"/>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" s="10"/>
       <c r="B512" s="23"/>
       <c r="C512" s="25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D512" s="26"/>
       <c r="E512" s="26"/>
@@ -36251,7 +36246,7 @@
       <c r="K512" s="26"/>
       <c r="L512" s="26"/>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" s="10"/>
       <c r="B513" s="10"/>
       <c r="C513" s="10"/>
@@ -36265,13 +36260,13 @@
       <c r="K513" s="10"/>
       <c r="L513" s="10"/>
     </row>
-    <row r="514" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A514" s="10"/>
       <c r="B514" s="24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C514" s="25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D514" s="26"/>
       <c r="E514" s="26"/>
@@ -36283,10 +36278,10 @@
       <c r="K514" s="26"/>
       <c r="L514" s="26"/>
     </row>
-    <row r="515" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A515" s="10"/>
       <c r="B515" s="24" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C515" s="25"/>
       <c r="D515" s="26"/>
@@ -36299,7 +36294,7 @@
       <c r="K515" s="26"/>
       <c r="L515" s="26"/>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" s="10"/>
       <c r="B516" s="10"/>
       <c r="C516" s="10"/>
@@ -36313,13 +36308,13 @@
       <c r="K516" s="10"/>
       <c r="L516" s="10"/>
     </row>
-    <row r="517" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A517" s="10"/>
       <c r="B517" s="23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C517" s="25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D517" s="26"/>
       <c r="E517" s="26"/>
@@ -36331,7 +36326,7 @@
       <c r="K517" s="26"/>
       <c r="L517" s="26"/>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" s="10"/>
       <c r="B518" s="10"/>
       <c r="C518" s="10"/>
@@ -36345,13 +36340,13 @@
       <c r="K518" s="10"/>
       <c r="L518" s="10"/>
     </row>
-    <row r="519" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A519" s="10"/>
       <c r="B519" s="23" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C519" s="25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D519" s="26"/>
       <c r="E519" s="26"/>
@@ -36363,7 +36358,7 @@
       <c r="K519" s="26"/>
       <c r="L519" s="26"/>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" s="10"/>
       <c r="B520" s="10"/>
       <c r="C520" s="10"/>
@@ -36377,13 +36372,13 @@
       <c r="K520" s="10"/>
       <c r="L520" s="10"/>
     </row>
-    <row r="521" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A521" s="10"/>
       <c r="B521" s="23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C521" s="25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D521" s="26"/>
       <c r="E521" s="26"/>
@@ -36395,7 +36390,7 @@
       <c r="K521" s="26"/>
       <c r="L521" s="26"/>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" s="10"/>
       <c r="B522" s="10"/>
       <c r="C522" s="10"/>
@@ -36409,13 +36404,13 @@
       <c r="K522" s="10"/>
       <c r="L522" s="10"/>
     </row>
-    <row r="523" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A523" s="10"/>
       <c r="B523" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C523" s="25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D523" s="26"/>
       <c r="E523" s="26"/>
@@ -36427,13 +36422,13 @@
       <c r="K523" s="26"/>
       <c r="L523" s="26"/>
     </row>
-    <row r="524" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A524" s="10"/>
       <c r="B524" s="23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C524" s="25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D524" s="26"/>
       <c r="E524" s="26"/>
@@ -36445,7 +36440,7 @@
       <c r="K524" s="26"/>
       <c r="L524" s="26"/>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" s="10"/>
       <c r="B525" s="10"/>
       <c r="C525" s="10"/>
@@ -36459,13 +36454,13 @@
       <c r="K525" s="10"/>
       <c r="L525" s="10"/>
     </row>
-    <row r="526" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A526" s="10"/>
       <c r="B526" s="23" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C526" s="25" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D526" s="26"/>
       <c r="E526" s="26"/>
@@ -36477,7 +36472,7 @@
       <c r="K526" s="26"/>
       <c r="L526" s="26"/>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" s="10"/>
       <c r="B527" s="10"/>
       <c r="C527" s="10"/>
@@ -36491,13 +36486,13 @@
       <c r="K527" s="10"/>
       <c r="L527" s="10"/>
     </row>
-    <row r="528" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A528" s="10"/>
       <c r="B528" s="23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C528" s="25" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D528" s="26"/>
       <c r="E528" s="26"/>
@@ -36509,11 +36504,11 @@
       <c r="K528" s="26"/>
       <c r="L528" s="26"/>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" s="10"/>
       <c r="B529" s="23"/>
       <c r="C529" s="25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D529" s="26"/>
       <c r="E529" s="26"/>
@@ -36525,7 +36520,7 @@
       <c r="K529" s="26"/>
       <c r="L529" s="26"/>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" s="10"/>
       <c r="B530" s="10"/>
       <c r="C530" s="10"/>
@@ -36539,13 +36534,13 @@
       <c r="K530" s="10"/>
       <c r="L530" s="10"/>
     </row>
-    <row r="531" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A531" s="10"/>
       <c r="B531" s="23" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C531" s="25" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D531" s="26"/>
       <c r="E531" s="26"/>
@@ -36560,6 +36555,56 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="57">
+    <mergeCell ref="A450:L450"/>
+    <mergeCell ref="B452:L452"/>
+    <mergeCell ref="B453:L453"/>
+    <mergeCell ref="B454:L454"/>
+    <mergeCell ref="B455:L455"/>
+    <mergeCell ref="B456:L456"/>
+    <mergeCell ref="B457:L457"/>
+    <mergeCell ref="B458:L458"/>
+    <mergeCell ref="B459:L459"/>
+    <mergeCell ref="B460:L460"/>
+    <mergeCell ref="B461:L461"/>
+    <mergeCell ref="B462:L462"/>
+    <mergeCell ref="B463:L463"/>
+    <mergeCell ref="B464:L464"/>
+    <mergeCell ref="B465:L465"/>
+    <mergeCell ref="B466:L466"/>
+    <mergeCell ref="B467:L467"/>
+    <mergeCell ref="B468:L468"/>
+    <mergeCell ref="B469:L469"/>
+    <mergeCell ref="B470:L470"/>
+    <mergeCell ref="B471:L471"/>
+    <mergeCell ref="B472:L472"/>
+    <mergeCell ref="B473:L473"/>
+    <mergeCell ref="B474:L474"/>
+    <mergeCell ref="B475:L475"/>
+    <mergeCell ref="C480:L480"/>
+    <mergeCell ref="C482:L482"/>
+    <mergeCell ref="C484:L484"/>
+    <mergeCell ref="C485:L485"/>
+    <mergeCell ref="C487:L487"/>
+    <mergeCell ref="C489:L489"/>
+    <mergeCell ref="C490:L490"/>
+    <mergeCell ref="C491:L491"/>
+    <mergeCell ref="C492:L492"/>
+    <mergeCell ref="C494:L494"/>
+    <mergeCell ref="C495:L495"/>
+    <mergeCell ref="C497:L497"/>
+    <mergeCell ref="C499:L499"/>
+    <mergeCell ref="C501:L501"/>
+    <mergeCell ref="C503:L503"/>
+    <mergeCell ref="C504:L504"/>
+    <mergeCell ref="C506:L506"/>
+    <mergeCell ref="C508:L508"/>
+    <mergeCell ref="C509:L509"/>
+    <mergeCell ref="C511:L511"/>
+    <mergeCell ref="C512:L512"/>
+    <mergeCell ref="C514:L514"/>
+    <mergeCell ref="C515:L515"/>
+    <mergeCell ref="C526:L526"/>
+    <mergeCell ref="C528:L528"/>
     <mergeCell ref="C529:L529"/>
     <mergeCell ref="C531:L531"/>
     <mergeCell ref="C517:L517"/>
@@ -36567,56 +36612,6 @@
     <mergeCell ref="C521:L521"/>
     <mergeCell ref="C523:L523"/>
     <mergeCell ref="C524:L524"/>
-    <mergeCell ref="C512:L512"/>
-    <mergeCell ref="C514:L514"/>
-    <mergeCell ref="C515:L515"/>
-    <mergeCell ref="C526:L526"/>
-    <mergeCell ref="C528:L528"/>
-    <mergeCell ref="C504:L504"/>
-    <mergeCell ref="C506:L506"/>
-    <mergeCell ref="C508:L508"/>
-    <mergeCell ref="C509:L509"/>
-    <mergeCell ref="C511:L511"/>
-    <mergeCell ref="C495:L495"/>
-    <mergeCell ref="C497:L497"/>
-    <mergeCell ref="C499:L499"/>
-    <mergeCell ref="C501:L501"/>
-    <mergeCell ref="C503:L503"/>
-    <mergeCell ref="C489:L489"/>
-    <mergeCell ref="C490:L490"/>
-    <mergeCell ref="C491:L491"/>
-    <mergeCell ref="C492:L492"/>
-    <mergeCell ref="C494:L494"/>
-    <mergeCell ref="C480:L480"/>
-    <mergeCell ref="C482:L482"/>
-    <mergeCell ref="C484:L484"/>
-    <mergeCell ref="C485:L485"/>
-    <mergeCell ref="C487:L487"/>
-    <mergeCell ref="B471:L471"/>
-    <mergeCell ref="B472:L472"/>
-    <mergeCell ref="B473:L473"/>
-    <mergeCell ref="B474:L474"/>
-    <mergeCell ref="B475:L475"/>
-    <mergeCell ref="B466:L466"/>
-    <mergeCell ref="B467:L467"/>
-    <mergeCell ref="B468:L468"/>
-    <mergeCell ref="B469:L469"/>
-    <mergeCell ref="B470:L470"/>
-    <mergeCell ref="B461:L461"/>
-    <mergeCell ref="B462:L462"/>
-    <mergeCell ref="B463:L463"/>
-    <mergeCell ref="B464:L464"/>
-    <mergeCell ref="B465:L465"/>
-    <mergeCell ref="B456:L456"/>
-    <mergeCell ref="B457:L457"/>
-    <mergeCell ref="B458:L458"/>
-    <mergeCell ref="B459:L459"/>
-    <mergeCell ref="B460:L460"/>
-    <mergeCell ref="A450:L450"/>
-    <mergeCell ref="B452:L452"/>
-    <mergeCell ref="B453:L453"/>
-    <mergeCell ref="B454:L454"/>
-    <mergeCell ref="B455:L455"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -36630,322 +36625,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ADB Document" ma:contentTypeID="0x0101008911345A3DAEDD4C94E405931CFDF63500ABC5BDE0A65056449F41FF865698E92A" ma:contentTypeVersion="14" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="21b5ce467047738f5fb2eea5f0ab394a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1fdd505-2570-46c2-bd04-3e0f2d874cf5" xmlns:ns3="167faf68-1382-435f-8f09-a46b79a55ee8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc0a3011209a488a42f3edf35c7dc4f3" ns2:_="" ns3:_="">
-    <xsd:import namespace="c1fdd505-2570-46c2-bd04-3e0f2d874cf5"/>
-    <xsd:import namespace="167faf68-1382-435f-8f09-a46b79a55ee8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:ADBDocumentDate" minOccurs="0"/>
-                <xsd:element ref="ns2:ADBMonth" minOccurs="0"/>
-                <xsd:element ref="ns2:ADBYear" minOccurs="0"/>
-                <xsd:element ref="ns2:ADBAuthors" minOccurs="0"/>
-                <xsd:element ref="ns2:ADBSourceLink" minOccurs="0"/>
-                <xsd:element ref="ns2:ADBCirculatedLink" minOccurs="0"/>
-                <xsd:element ref="ns2:d61536b25a8a4fedb48bb564279be82a" minOccurs="0"/>
-                <xsd:element ref="ns2:h00e4aaaf4624e24a7df7f06faa038c6" minOccurs="0"/>
-                <xsd:element ref="ns2:k985dbdc596c44d7acaf8184f33920f0" minOccurs="0"/>
-                <xsd:element ref="ns2:a37ff23a602146d4934a49238d370ca5" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:d01a0ce1b141461dbfb235a3ab729a2c" minOccurs="0"/>
-                <xsd:element ref="ns2:p030e467f78f45b4ae8f7e2c17ea4d82" minOccurs="0"/>
-                <xsd:element ref="ns2:j78542b1fffc4a1c84659474212e3133" minOccurs="0"/>
-                <xsd:element ref="ns2:ADBDocumentTypeValue" minOccurs="0"/>
-                <xsd:element ref="ns2:ia017ac09b1942648b563fe0b2b14d52" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c1fdd505-2570-46c2-bd04-3e0f2d874cf5" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="ADBDocumentDate" ma:index="3" nillable="true" ma:displayName="Document Date" ma:format="DateOnly" ma:internalName="ADBDocumentDate">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ADBMonth" ma:index="4" nillable="true" ma:displayName="Month" ma:format="Dropdown" ma:internalName="ADBMonth">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="01-Jan"/>
-          <xsd:enumeration value="02-Feb"/>
-          <xsd:enumeration value="03-Mar"/>
-          <xsd:enumeration value="04-Apr"/>
-          <xsd:enumeration value="05-May"/>
-          <xsd:enumeration value="06-Jun"/>
-          <xsd:enumeration value="07-Jul"/>
-          <xsd:enumeration value="08-Aug"/>
-          <xsd:enumeration value="09-Sep"/>
-          <xsd:enumeration value="10-Oct"/>
-          <xsd:enumeration value="11-Nov"/>
-          <xsd:enumeration value="12-Dec"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ADBYear" ma:index="5" nillable="true" ma:displayName="Year" ma:internalName="ADBYear">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="4"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ADBAuthors" ma:index="6" nillable="true" ma:displayName="Authors" ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="ADBAuthors" ma:showField="ImnName">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="ADBSourceLink" ma:index="13" nillable="true" ma:displayName="Source Link" ma:format="Hyperlink" ma:internalName="ADBSourceLink">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:URL">
-            <xsd:sequence>
-              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
-              <xsd:element name="Description" type="xsd:string" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="ADBCirculatedLink" ma:index="14" nillable="true" ma:displayName="Final Document Link" ma:format="Hyperlink" ma:internalName="ADBCirculatedLink">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:URL">
-            <xsd:sequence>
-              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
-              <xsd:element name="Description" type="xsd:string" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="d61536b25a8a4fedb48bb564279be82a" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="d61536b25a8a4fedb48bb564279be82a" ma:taxonomyFieldName="ADBDepartmentOwner" ma:displayName="Department Owner" ma:default="" ma:fieldId="{d61536b2-5a8a-4fed-b48b-b564279be82a}" ma:sspId="115af50e-efb3-4a0e-b425-875ff625e09e" ma:termSetId="b965cdb6-1071-4c6a-a9a3-189d53a950d4" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="h00e4aaaf4624e24a7df7f06faa038c6" ma:index="18" nillable="true" ma:taxonomy="true" ma:internalName="h00e4aaaf4624e24a7df7f06faa038c6" ma:taxonomyFieldName="ADBDocumentLanguage" ma:displayName="Document Language" ma:default="1;#English|16ac8743-31bb-43f8-9a73-533a041667d6" ma:fieldId="{100e4aaa-f462-4e24-a7df-7f06faa038c6}" ma:sspId="115af50e-efb3-4a0e-b425-875ff625e09e" ma:termSetId="fdf74959-6eb2-4689-a0fc-b9e1ab230b09" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="k985dbdc596c44d7acaf8184f33920f0" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="k985dbdc596c44d7acaf8184f33920f0" ma:taxonomyFieldName="ADBCountry" ma:displayName="Country" ma:default="" ma:fieldId="{4985dbdc-596c-44d7-acaf-8184f33920f0}" ma:sspId="115af50e-efb3-4a0e-b425-875ff625e09e" ma:termSetId="169202c7-46da-431e-ac86-348c41a1f49b" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="a37ff23a602146d4934a49238d370ca5" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="a37ff23a602146d4934a49238d370ca5" ma:taxonomyFieldName="ADBDocumentType" ma:displayName="ADB Document Type" ma:default="" ma:fieldId="{a37ff23a-6021-46d4-934a-49238d370ca5}" ma:sspId="115af50e-efb3-4a0e-b425-875ff625e09e" ma:termSetId="ebf26521-a829-4b24-b73e-5e500b1bc1db" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{14ef68db-a5c8-4581-a1cb-b68bbe7e2715}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="514b7c65-86d8-4dda-92f1-aa92439df021">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="d01a0ce1b141461dbfb235a3ab729a2c" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="d01a0ce1b141461dbfb235a3ab729a2c" ma:taxonomyFieldName="ADBSector" ma:displayName="Sector" ma:default="" ma:fieldId="{d01a0ce1-b141-461d-bfb2-35a3ab729a2c}" ma:sspId="115af50e-efb3-4a0e-b425-875ff625e09e" ma:termSetId="bae01210-cdc5-4479-86d7-616c28c0a9b3" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="p030e467f78f45b4ae8f7e2c17ea4d82" ma:index="27" nillable="true" ma:taxonomy="true" ma:internalName="p030e467f78f45b4ae8f7e2c17ea4d82" ma:taxonomyFieldName="ADBDocumentSecurity" ma:displayName="Document Security" ma:default="" ma:fieldId="{9030e467-f78f-45b4-ae8f-7e2c17ea4d82}" ma:sspId="115af50e-efb3-4a0e-b425-875ff625e09e" ma:termSetId="9b0b4686-afa9-4a02-bc15-8fbc99f17210" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="j78542b1fffc4a1c84659474212e3133" ma:index="29" nillable="true" ma:taxonomy="true" ma:internalName="j78542b1fffc4a1c84659474212e3133" ma:taxonomyFieldName="ADBContentGroup" ma:displayName="Content Group" ma:readOnly="false" ma:default="3;#ERCD|ab3ec0c9-2ce1-477e-8dd0-15d1f7f6b467" ma:fieldId="{378542b1-fffc-4a1c-8465-9474212e3133}" ma:taxonomyMulti="true" ma:sspId="115af50e-efb3-4a0e-b425-875ff625e09e" ma:termSetId="2a9ffbee-93a5-418b-bcdb-8d6817936e6b" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="ADBDocumentTypeValue" ma:index="30" nillable="true" ma:displayName="Document Type" ma:hidden="true" ma:internalName="ADBDocumentTypeValue" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ia017ac09b1942648b563fe0b2b14d52" ma:index="31" nillable="true" ma:taxonomy="true" ma:internalName="ia017ac09b1942648b563fe0b2b14d52" ma:taxonomyFieldName="ADBDivision" ma:displayName="Division" ma:default="" ma:fieldId="{2a017ac0-9b19-4264-8b56-3fe0b2b14d52}" ma:sspId="115af50e-efb3-4a0e-b425-875ff625e09e" ma:termSetId="d736278f-2140-40cc-b46b-6a0ab0de2d29" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="167faf68-1382-435f-8f09-a46b79a55ee8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="32" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="33" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="34" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="36" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="115af50e-efb3-4a0e-b425-875ff625e09e" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="24" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C90B54C17B4C349AF9CAC9779232DC5" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8fca9bb42993a98b8176a0059fabf9b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2b4b9d8e-ecb2-49e1-a87e-51dfdfcaee7f" xmlns:ns3="b966b054-3674-4c4f-a2b0-6a3ffbe0790e" xmlns:ns4="c1fdd505-2570-46c2-bd04-3e0f2d874cf5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bca51a6c5cebc9ae9aa904eb02b23f1b" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="2b4b9d8e-ecb2-49e1-a87e-51dfdfcaee7f"/>
@@ -37201,16 +36880,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="c1fdd505-2570-46c2-bd04-3e0f2d874cf5">
@@ -37227,15 +36897,25 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ACA3B77-83E2-442F-890A-152CCE9D2399}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07338A2D-9B86-4B41-B475-F7F5BBE083CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2b4b9d8e-ecb2-49e1-a87e-51dfdfcaee7f"/>
+    <ds:schemaRef ds:uri="b966b054-3674-4c4f-a2b0-6a3ffbe0790e"/>
     <ds:schemaRef ds:uri="c1fdd505-2570-46c2-bd04-3e0f2d874cf5"/>
-    <ds:schemaRef ds:uri="167faf68-1382-435f-8f09-a46b79a55ee8"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -37247,7 +36927,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07338A2D-9B86-4B41-B475-F7F5BBE083CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1723E5A8-A405-4F77-AA74-4ABAF7703E96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1fdd505-2570-46c2-bd04-3e0f2d874cf5"/>
+    <ds:schemaRef ds:uri="167faf68-1382-435f-8f09-a46b79a55ee8"/>
+    <ds:schemaRef ds:uri="2b4b9d8e-ecb2-49e1-a87e-51dfdfcaee7f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37256,15 +36944,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1723E5A8-A405-4F77-AA74-4ABAF7703E96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1fdd505-2570-46c2-bd04-3e0f2d874cf5"/>
-    <ds:schemaRef ds:uri="167faf68-1382-435f-8f09-a46b79a55ee8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>